--- a/Optimized_bracket.xlsx
+++ b/Optimized_bracket.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3001a39c0b38ace0/Documenten/TU Delft/AE4204 Knowledge Based Engineering/Assignment/knapsack-packing-master/knapsack-packing-master/KnapsackPacking/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B95277B201185A00B975722E9081133548102398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AF757E-023C-41B2-A3B1-B18F675CB130}"/>
   <bookViews>
-    <workbookView xWindow="-25845" yWindow="2985" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="Connector 3" sheetId="4" r:id="rId4"/>
     <sheet name="Connector 4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Connector Type</t>
   </si>
@@ -35,58 +29,25 @@
     <t>Area</t>
   </si>
   <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>MIL/20-A</t>
+  </si>
+  <si>
+    <t>[Point(32.840890650138434, 42.15903558294302, 0), Point(2.9727089631885164, 31.24428763737187, 0), Point(13.88745690875967, 1.3761059504219517, 0), Point(43.755638595709584, 12.290853895993102, 0), Point(32.840890650138434, 42.15903558294302, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(57.669141414753426, 11.069446088580783, 0), Point(89.46872276222888, 11.232621225451261, 0), Point(89.3055476253584, 43.032202572926685, 0), Point(57.505966277882976, 42.86902743605622, 0), Point(57.669141414753426, 11.069446088580783, 0)]</t>
+  </si>
+  <si>
     <t>MIL/24-A</t>
   </si>
   <si>
-    <t>[Point(49.47688786800301, 54.31784116744436, 0), Point(49.45833789356267, 53.56219898280212, 0), Point(49.40273265875484, 52.80837720636912, 0), Point(49.31020612146064, 52.05819186083179, 0), Point(49.18098118621276, 51.313450208395984, 0), Point(49.01536916719899, 50.5759463969341, 0), Point(48.813769038279034, 49.84745713772564, 0), Point(48.57666647182154, 49.12973742520417, 0), Point(48.30463266867683, 48.42451630902198, 0), Point(47.99832298210404, 47.73349272861802, 0), Point(47.65847533896768, 47.058331420324, 0), Point(47.28590846200721, 46.40065890686875, 0), Point(46.88151989746221, 45.76205957894249, 0), Point(46.44628385280495, 45.14407187826089, 0), Point(45.98124884978917, 44.54818459132422, 0), Point(45.48753519846939, 43.97583326280028, 0), Point(44.96633229827585, 43.42839673717153, 0), Point(44.418895772647105, 42.907193836977996, 0), Point(43.84654444412316, 42.413480185658216, 0), Point(43.250657157186495, 41.94844518264243, 0), Point(42.6326694565049, 41.51320913798517, 0), Point(41.99407012857864, 41.10882057344018, 0), Point(41.33639761512339, 40.73625369647969, 0), Point(40.66123630682937, 40.396406053343334, 0), Point(39.97021272642541, 40.090096366770545, 0), Point(39.264991610243214, 39.818062563625844, 0), Point(38.54727189772174, 39.58095999716834, 0), Point(37.81878263851329, 39.379359868248386, 0), Point(37.0812788270514, 39.21374784923461, 0), Point(36.33653717461559, 39.08452291398673, 0), Point(35.586351829078254, 38.991996376692526, 0), Point(34.83253005264526, 38.9363911418847, 0), Point(34.07688786800302, 38.91784116744436, 0), Point(33.32124568336078, 38.9363911418847, 0), Point(32.567423906927786, 38.991996376692526, 0), Point(31.817238561390447, 39.08452291398673, 0), Point(31.07249690895464, 39.21374784923461, 0), Point(30.334993097492752, 39.37935986824838, 0), Point(29.606503838284297, 39.580959997168335, 0), Point(28.888784125762825, 39.81806256362584, 0), Point(28.18356300958063, 40.09009636677054, 0), Point(27.492539429176674, 40.39640605334333, 0), Point(26.817378120882655, 40.736253696479686, 0), Point(26.159705607427405, 41.10882057344016, 0), Point(25.521106279501147, 41.51320913798515, 0), Point(24.90311857881955, 41.948445182642416, 0), Point(24.307231291882886, 42.413480185658194, 0), Point(23.734879963358942, 42.907193836977974, 0), Point(23.187443437730195, 43.42839673717151, 0), Point(22.66624053753666, 43.97583326280026, 0), Point(22.17252688621688, 44.548184591324194, 0), Point(21.7074918832011, 45.14407187826086, 0), Point(21.272255838543835, 45.762059578942456, 0), Point(20.86786727399884, 46.40065890686871, 0), Point(20.495300397038363, 47.05833142032396, 0), Point(20.155452753902004, 47.733492728617975, 0), Point(19.849143067329212, 48.42451630902193, 0), Point(19.577109264184507, 49.12973742520413, 0), Point(19.34000669772701, 49.84745713772559, 0), Point(19.13840656880705, 50.57594639693404, 0), Point(18.972794549793274, 51.31345020839593, 0), Point(18.843569614545395, 52.058191860831734, 0), Point(18.751043077251186, 52.808377206369066, 0), Point(18.69543784244336, 53.56219898280206, 0), Point(18.676887868003014, 54.31784116744429, 0), Point(18.695437842443354, 55.07348335208653, 0), Point(18.751043077251175, 55.82730512851952, 0), Point(18.843569614545373, 56.57749047405686, 0), Point(18.97279454979325, 57.32223212649266, 0), Point(19.138406568807014, 58.05973593795455, 0), Point(19.34000669772697, 58.788225197163, 0), Point(19.577109264184465, 59.505944909684466, 0), Point(19.849143067329166, 60.21116602586666, 0), Point(20.155452753901947, 60.902189606270625, 0), Point(20.495300397038303, 61.57735091456464, 0), Point(20.867867273998776, 62.23502342801989, 0), Point(21.272255838543764, 62.87362275594615, 0), Point(21.707491883201023, 63.491610456627754, 0), Point(22.1725268862168, 64.08749774356443, 0), Point(22.666240537536574, 64.65984907208836, 0), Point(23.187443437730106, 65.20728559771712, 0), Point(23.73487996335885, 65.72848849791066, 0), Point(24.307231291882793, 66.22220214923044, 0), Point(24.903118578819452, 66.68723715224623, 0), Point(25.521106279501048, 67.1224731969035, 0), Point(26.159705607427302, 67.52686176144849, 0), Point(26.817378120882548, 67.89942863840898, 0), Point(27.492539429176563, 68.23927628154533, 0), Point(28.18356300958052, 68.54558596811813, 0), Point(28.888784125762708, 68.81761977126284, 0), Point(29.606503838284173, 69.05472233772034, 0), Point(30.334993097492625, 69.2563224666403, 0), Point(31.072496908954513, 69.42193448565408, 0), Point(31.81723856139031, 69.55115942090197, 0), Point(32.567423906927644, 69.64368595819617, 0), Point(33.32124568336064, 69.699291193004, 0), Point(34.07688786800287, 69.71784116744436, 0), Point(34.83253005264511, 69.69929119300402, 0), Point(35.586351829078104, 69.6436859581962, 0), Point(36.33653717461544, 69.55115942090201, 0), Point(37.08127882705124, 69.42193448565413, 0), Point(37.81878263851313, 69.25632246664037, 0), Point(38.547271897721586, 69.05472233772042, 0), Point(39.26499161024305, 68.81761977126293, 0), Point(39.970212726425245, 68.54558596811823, 0), Point(40.66123630682921, 68.23927628154546, 0), Point(41.33639761512323, 67.8994286384091, 0), Point(41.994070128578485, 67.52686176144863, 0), Point(42.63266945650474, 67.12247319690366, 0), Point(43.250657157186346, 66.6872371522464, 0), Point(43.84654444412302, 66.22220214923061, 0), Point(44.41889577264696, 65.72848849791085, 0), Point(44.96633229827572, 65.20728559771732, 0), Point(45.48753519846926, 64.65984907208858, 0), Point(45.98124884978905, 64.08749774356464, 0), Point(46.44628385280483, 63.49161045662798, 0), Point(46.881519897462105, 62.873622755946386, 0), Point(47.2859084620071, 62.235023428020135, 0), Point(47.65847533896759, 61.577350914564896, 0), Point(47.99832298210396, 60.90218960627088, 0), Point(48.30463266867675, 60.21116602586692, 0), Point(48.57666647182146, 59.505944909684736, 0), Point(48.81376903827897, 58.78822519716327, 0), Point(49.01536916719894, 58.05973593795483, 0), Point(49.18098118621272, 57.32223212649294, 0), Point(49.31020612146061, 56.57749047405714, 0), Point(49.40273265875482, 55.827305128519804, 0), Point(49.45833789356266, 55.07348335208681, 0), Point(49.47688786800301, 54.31784116744458, 0), Point(49.47688786800301, 54.31784116744436, 0)]</t>
-  </si>
-  <si>
-    <t>MIL/20-A</t>
-  </si>
-  <si>
-    <t>[Point(74.22492970184807, 171.28480710375533, 0), Point(66.74726618539329, 148.05886151838286, 0), Point(89.97321177076573, 140.5811980019281, 0), Point(97.45087528722051, 163.80714358730054, 0), Point(74.22492970184807, 171.28480710375533, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(84.16976300562958, 29.66454699875569, 0), Point(69.72534187767525, 49.329711586887335, 0), Point(50.0601772895436, 34.885290458933014, 0), Point(64.50459841749793, 15.220125870801368, 0), Point(84.16976300562958, 29.66454699875569, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(62.842258285043634, 149.75710079556458, 0), Point(62.823708310603294, 149.00145861092236, 0), Point(62.768103075795466, 148.24763683448936, 0), Point(62.67557653850126, 147.497451488952, 0), Point(62.546351603253385, 146.7527098365162, 0), Point(62.38073958423961, 146.0152060250543, 0), Point(62.17913945531966, 145.28671676584585, 0), Point(61.94203688886216, 144.5689970533244, 0), Point(61.670003085717454, 143.8637759371422, 0), Point(61.363693399144665, 143.17275235673824, 0), Point(61.023845756008306, 142.49759104844424, 0), Point(60.65127887904783, 141.83991853498898, 0), Point(60.246890314502835, 141.2013192070627, 0), Point(59.811654269845576, 140.5833315063811, 0), Point(59.34661926682979, 139.98744421944446, 0), Point(58.85290561551001, 139.4150928909205, 0), Point(58.331702715316474, 138.86765636529177, 0), Point(57.78426618968773, 138.34645346509822, 0), Point(57.211914861163784, 137.85273981377844, 0), Point(56.61602757422712, 137.38770481076267, 0), Point(55.99803987354552, 136.9524687661054, 0), Point(55.359440545619265, 136.5480802015604, 0), Point(54.70176803216401, 136.17551332459993, 0), Point(54.026606723869996, 135.83566568146355, 0), Point(53.33558314346603, 135.52935599489078, 0), Point(52.63036202728384, 135.25732219174606, 0), Point(51.912642314762365, 135.02021962528858, 0), Point(51.184153055553914, 134.8186194963686, 0), Point(50.44664924409202, 134.65300747735483, 0), Point(49.701907591656216, 134.52378254210694, 0), Point(48.95172224611888, 134.43125600481275, 0), Point(48.197900469685884, 134.37565077000494, 0), Point(47.44225828504364, 134.35710079556458, 0), Point(46.6866161004014, 134.37565077000494, 0), Point(45.93279432396841, 134.43125600481275, 0), Point(45.18260897843107, 134.52378254210694, 0), Point(44.43786732599526, 134.65300747735483, 0), Point(43.70036351453338, 134.8186194963686, 0), Point(42.97187425532492, 135.02021962528858, 0), Point(42.25415454280345, 135.25732219174606, 0), Point(41.548933426621254, 135.52935599489078, 0), Point(40.8579098462173, 135.83566568146355, 0), Point(40.182748537923274, 136.1755133245999, 0), Point(39.52507602446803, 136.5480802015604, 0), Point(38.88647669654177, 136.95246876610537, 0), Point(38.268488995860174, 137.38770481076264, 0), Point(37.67260170892351, 137.8527398137784, 0), Point(37.100250380399565, 138.3464534650982, 0), Point(36.55281385477082, 138.86765636529174, 0), Point(36.03161095457728, 139.41509289092048, 0), Point(35.5378973032575, 139.98744421944443, 0), Point(35.072862300241724, 140.58333150638109, 0), Point(34.63762625558446, 141.20131920706268, 0), Point(34.23323769103946, 141.83991853498893, 0), Point(33.860670814078986, 142.49759104844418, 0), Point(33.52082317094263, 143.17275235673821, 0), Point(33.21451348436983, 143.86377593714215, 0), Point(32.94247968122513, 144.56899705332435, 0), Point(32.70537711476763, 145.28671676584582, 0), Point(32.50377698584767, 146.01520602505428, 0), Point(32.3381649668339, 146.75270983651615, 0), Point(32.20894003158602, 147.49745148895195, 0), Point(32.116413494291805, 148.2476368344893, 0), Point(32.060808259483984, 149.00145861092227, 0), Point(32.04225828504364, 149.75710079556453, 0), Point(32.06080825948398, 150.51274298020675, 0), Point(32.1164134942918, 151.26656475663975, 0), Point(32.208940031585996, 152.01675010217707, 0), Point(32.33816496683387, 152.76149175461288, 0), Point(32.50377698584764, 153.49899556607477, 0), Point(32.70537711476759, 154.22748482528323, 0), Point(32.94247968122509, 154.9452045378047, 0), Point(33.21451348436979, 155.6504256539869, 0), Point(33.52082317094257, 156.34144923439084, 0), Point(33.86067081407893, 157.01661054268487, 0), Point(34.2332376910394, 157.67428305614013, 0), Point(34.63762625558439, 158.31288238406637, 0), Point(35.072862300241646, 158.93087008474797, 0), Point(35.537897303257424, 159.52675737168465, 0), Point(36.0316109545772, 160.0991087002086, 0), Point(36.55281385477073, 160.64654522583734, 0), Point(37.10025038039947, 161.1677481260309, 0), Point(37.672601708923416, 161.66146177735067, 0), Point(38.268488995860075, 162.12649678036644, 0), Point(38.88647669654167, 162.5617328250237, 0), Point(39.52507602446793, 162.9661213895687, 0), Point(40.182748537923175, 163.3386882665292, 0), Point(40.85790984621718, 163.67853590966556, 0), Point(41.54893342662115, 163.98484559623836, 0), Point(42.254154542803334, 164.25687939938305, 0), Point(42.97187425532479, 164.49398196584056, 0), Point(43.70036351453325, 164.69558209476054, 0), Point(44.437867325995136, 164.8611941137743, 0), Point(45.182608978430935, 164.9904190490222, 0), Point(45.93279432396827, 165.0829455863164, 0), Point(46.68661610040126, 165.13855082112423, 0), Point(47.44225828504349, 165.1571007955646, 0), Point(48.197900469685734, 165.13855082112426, 0), Point(48.95172224611873, 165.08294558631644, 0), Point(49.70190759165606, 164.99041904902222, 0), Point(50.446649244091866, 164.86119411377436, 0), Point(51.18415305555375, 164.6955820947606, 0), Point(51.91264231476221, 164.49398196584065, 0), Point(52.630362027283674, 164.25687939938317, 0), Point(53.33558314346587, 163.98484559623847, 0), Point(54.02660672386983, 163.67853590966567, 0), Point(54.701768032163855, 163.33868826652932, 0), Point(55.35944054561911, 162.96612138956885, 0), Point(55.998039873545366, 162.56173282502388, 0), Point(56.61602757422697, 162.1264967803666, 0), Point(57.21191486116364, 161.66146177735084, 0), Point(57.784266189687585, 161.16774812603109, 0), Point(58.33170271531634, 160.64654522583754, 0), Point(58.85290561550988, 160.0991087002088, 0), Point(59.34661926682967, 159.52675737168488, 0), Point(59.811654269845455, 158.93087008474822, 0), Point(60.24689031450273, 158.31288238406663, 0), Point(60.65127887904772, 157.67428305614035, 0), Point(61.023845756008214, 157.01661054268513, 0), Point(61.36369339914458, 156.34144923439112, 0), Point(61.670003085717376, 155.65042565398716, 0), Point(61.942036888862084, 154.94520453780495, 0), Point(62.17913945531959, 154.2274848252835, 0), Point(62.380739584239564, 153.49899556607505, 0), Point(62.54635160325334, 152.76149175461316, 0), Point(62.67557653850123, 152.01675010217735, 0), Point(62.768103075795445, 151.26656475664004, 0), Point(62.82370831060328, 150.51274298020704, 0), Point(62.842258285043634, 149.7571007955648, 0), Point(62.842258285043634, 149.75710079556458, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(74.13501380251081, 82.44005115216889, 0), Point(56.78509303615209, 99.59639835666073, 0), Point(39.62874583166027, 82.246477590302, 0), Point(56.978666598018975, 65.09013038581017, 0), Point(74.13501380251081, 82.44005115216889, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(83.71345828040768, 131.25490769231845, 0), Point(64.34431162856526, 146.09391567733624, 0), Point(49.505303643547464, 126.72476902549386, 0), Point(68.87445029538989, 111.88576104047604, 0), Point(83.71345828040768, 131.25490769231845, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(76.43636012731686, 45.18768185678377, 0), Point(90.76204686581504, 64.93950960690395, 0), Point(71.01021911569487, 79.26519634540213, 0), Point(56.684532377196675, 59.513368595281946, 0), Point(76.43636012731686, 45.18768185678377, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(45.852870121323484, 181.60333185013013, 0), Point(45.83432014688314, 180.8476896654879, 0), Point(45.778714912075316, 180.0938678890549, 0), Point(45.68618837478111, 179.34368254351756, 0), Point(45.556963439533234, 178.59894089108175, 0), Point(45.39135142051946, 177.86143707961986, 0), Point(45.1897512915995, 177.1329478204114, 0), Point(44.952648725142005, 176.41522810788996, 0), Point(44.680614921997304, 175.71000699170776, 0), Point(44.374305235424515, 175.0189834113038, 0), Point(44.03445759228815, 174.34382210300978, 0), Point(43.66189071532767, 173.68614958955453, 0), Point(43.257502150782685, 173.04755026162826, 0), Point(42.82226610612542, 172.42956256094666, 0), Point(42.35723110310964, 171.83367527401, 0), Point(41.86351745178986, 171.26132394548605, 0), Point(41.342314551596324, 170.71388741985731, 0), Point(40.79487802596758, 170.19268451966377, 0), Point(40.222526697443634, 169.698970868344, 0), Point(39.62663941050697, 169.23393586532822, 0), Point(39.00865170982537, 168.79869982067095, 0), Point(38.370052381899114, 168.39431125612595, 0), Point(37.71237986844386, 168.02174437916548, 0), Point(37.03721856014984, 167.6818967360291, 0), Point(36.346194979745874, 167.37558704945633, 0), Point(35.64097386356369, 167.1035532463116, 0), Point(34.923254151042215, 166.86645067985413, 0), Point(34.194764891833756, 166.66485055093415, 0), Point(33.457261080371865, 166.49923853192038, 0), Point(32.712519427936066, 166.3700135966725, 0), Point(31.962334082398726, 166.2774870593783, 0), Point(31.208512305965726, 166.2218818245705, 0), Point(30.45287012132349, 166.20333185013013, 0), Point(29.69722793668125, 166.2218818245705, 0), Point(28.943406160248255, 166.2774870593783, 0), Point(28.193220814710916, 166.3700135966725, 0), Point(27.44847916227511, 166.49923853192038, 0), Point(26.71097535081322, 166.66485055093415, 0), Point(25.982486091604763, 166.86645067985413, 0), Point(25.264766379083294, 167.1035532463116, 0), Point(24.5595452629011, 167.37558704945633, 0), Point(23.86852168249714, 167.6818967360291, 0), Point(23.193360374203124, 168.02174437916545, 0), Point(22.535687860747874, 168.39431125612595, 0), Point(21.897088532821616, 168.79869982067092, 0), Point(21.27910083214002, 169.2339358653282, 0), Point(20.68321354520335, 169.69897086834396, 0), Point(20.110862216679415, 170.19268451966374, 0), Point(19.563425691050664, 170.7138874198573, 0), Point(19.042222790857128, 171.26132394548603, 0), Point(18.54850913953735, 171.83367527400998, 0), Point(18.083474136521566, 172.42956256094664, 0), Point(17.6482380918643, 173.04755026162823, 0), Point(17.24384952731931, 173.68614958955447, 0), Point(16.871282650358832, 174.34382210300973, 0), Point(16.53143500722247, 175.01898341130376, 0), Point(16.22512532064968, 175.7100069917077, 0), Point(15.953091517504976, 176.4152281078899, 0), Point(15.715988951047478, 177.13294782041137, 0), Point(15.514388822127517, 177.86143707961983, 0), Point(15.348776803113743, 178.5989408910817, 0), Point(15.219551867865862, 179.3436825435175, 0), Point(15.127025330571655, 180.09386788905485, 0), Point(15.07142009576383, 180.84768966548782, 0), Point(15.052870121323481, 181.60333185013008, 0), Point(15.071420095763823, 182.3589740347723, 0), Point(15.127025330571643, 183.1127958112053, 0), Point(15.219551867865844, 183.86298115674262, 0), Point(15.348776803113717, 184.60772280917843, 0), Point(15.514388822127485, 185.34522662064032, 0), Point(15.715988951047441, 186.07371587984878, 0), Point(15.953091517504934, 186.79143559237025, 0), Point(16.22512532064963, 187.49665670855245, 0), Point(16.531435007222417, 188.1876802889564, 0), Point(16.871282650358772, 188.86284159725042, 0), Point(17.243849527319245, 189.52051411070568, 0), Point(17.648238091864233, 190.15911343863192, 0), Point(18.083474136521495, 190.77710113931352, 0), Point(18.548509139537266, 191.3729884262502, 0), Point(19.042222790857043, 191.94533975477412, 0), Point(19.563425691050575, 192.4927762804029, 0), Point(20.11086221667932, 193.01397918059644, 0), Point(20.68321354520326, 193.50769283191622, 0), Point(21.279100832139925, 193.97272783493202, 0), Point(21.897088532821517, 194.40796387958926, 0), Point(22.53568786074777, 194.81235244413426, 0), Point(23.193360374203017, 195.18491932109475, 0), Point(23.868521682497033, 195.5247669642311, 0), Point(24.55954526290099, 195.8310766508039, 0), Point(25.264766379083177, 196.1031104539486, 0), Point(25.982486091604642, 196.3402130204061, 0), Point(26.710975350813094, 196.5418131493261, 0), Point(27.448479162274978, 196.70742516833985, 0), Point(28.19322081471078, 196.83665010358774, 0), Point(28.943406160248117, 196.92917664088196, 0), Point(29.697227936681106, 196.98478187568978, 0), Point(30.452870121323343, 197.00333185013014, 0), Point(31.208512305965577, 196.9847818756898, 0), Point(31.96233408239857, 196.929176640882, 0), Point(32.71251942793591, 196.83665010358777, 0), Point(33.45726108037171, 196.7074251683399, 0), Point(34.1947648918336, 196.54181314932615, 0), Point(34.92325415104205, 196.3402130204062, 0), Point(35.640973863563524, 196.10311045394872, 0), Point(36.34619497974572, 195.83107665080402, 0), Point(37.03721856014968, 195.52476696423122, 0), Point(37.7123798684437, 195.18491932109487, 0), Point(38.37005238189895, 194.8123524441344, 0), Point(39.008651709825216, 194.40796387958943, 0), Point(39.62663941050681, 193.97272783493216, 0), Point(40.222526697443485, 193.5076928319164, 0), Point(40.794878025967435, 193.01397918059664, 0), Point(41.34231455159619, 192.4927762804031, 0), Point(41.86351745178973, 191.94533975477435, 0), Point(42.35723110310951, 191.37298842625043, 0), Point(42.8222661061253, 190.77710113931377, 0), Point(43.25750215078257, 190.15911343863218, 0), Point(43.66189071532757, 189.5205141107059, 0), Point(44.03445759228806, 188.86284159725068, 0), Point(44.37430523542442, 188.18768028895667, 0), Point(44.68061492199722, 187.4966567085527, 0), Point(44.952648725141934, 186.7914355923705, 0), Point(45.189751291599435, 186.07371587984906, 0), Point(45.391351420519406, 185.3452266206406, 0), Point(45.55696343953319, 184.6077228091787, 0), Point(45.686188374781075, 183.8629811567429, 0), Point(45.778714912075294, 183.1127958112056, 0), Point(45.83432014688313, 182.3589740347726, 0), Point(45.852870121323484, 181.60333185013036, 0), Point(45.852870121323484, 181.60333185013013, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(32.01052483473522, 135.10841797938036, 0), Point(19.26573616735365, 114.30143929856797, 0), Point(40.07271484816603, 101.55665063118639, 0), Point(52.81750351554763, 122.36362931199878, 0), Point(32.01052483473522, 135.10841797938036, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(39.988938834501475, 86.87419676954823, 0), Point(39.970388860061135, 86.118554584906, 0), Point(39.91478362525331, 85.36473280847301, 0), Point(39.8222570879591, 84.61454746293566, 0), Point(39.693032152711226, 83.86980581049986, 0), Point(39.527420133697454, 83.13230199903798, 0), Point(39.3258200047775, 82.40381273982952, 0), Point(39.08871743832, 81.68609302730805, 0), Point(38.816683635175295, 80.98087191112586, 0), Point(38.510373948602506, 80.2898483307219, 0), Point(38.17052630546615, 79.61468702242787, 0), Point(37.79795942850567, 78.95701450897262, 0), Point(37.393570863960676, 78.31841518104636, 0), Point(36.95833481930342, 77.70042748036477, 0), Point(36.49329981628763, 77.10454019342811, 0), Point(35.99958616496785, 76.53218886490416, 0), Point(35.478383264774315, 75.98475233927542, 0), Point(34.93094673914557, 75.46354943908187, 0), Point(34.358595410621625, 74.9698357877621, 0), Point(33.76270812368496, 74.50480078474631, 0), Point(33.14472042300336, 74.06956474008905, 0), Point(32.506121095077106, 73.66517617554405, 0), Point(31.848448581621856, 73.29260929858357, 0), Point(31.173287273327833, 72.95276165544722, 0), Point(30.482263692923873, 72.64645196887443, 0), Point(29.777042576741678, 72.37441816572972, 0), Point(29.05932286422021, 72.13731559927223, 0), Point(28.33083360501175, 71.93571547035226, 0), Point(27.593329793549863, 71.77010345133849, 0), Point(26.848588141114057, 71.64087851609061, 0), Point(26.098402795576717, 71.5483519787964, 0), Point(25.34458101914372, 71.49274674398858, 0), Point(24.588938834501484, 71.47419676954823, 0), Point(23.833296649859246, 71.49274674398858, 0), Point(23.07947487342625, 71.5483519787964, 0), Point(22.32928952788891, 71.64087851609061, 0), Point(21.584547875453104, 71.77010345133849, 0), Point(20.847044063991216, 71.93571547035225, 0), Point(20.11855480478276, 72.13731559927221, 0), Point(19.40083509226129, 72.37441816572971, 0), Point(18.695613976079095, 72.64645196887442, 0), Point(18.004590395675137, 72.9527616554472, 0), Point(17.32942908738112, 73.29260929858356, 0), Point(16.67175657392587, 73.66517617554405, 0), Point(16.03315724599961, 74.06956474008904, 0), Point(15.415169545318015, 74.5048007847463, 0), Point(14.819282258381348, 74.96983578776208, 0), Point(14.246930929857408, 75.46354943908185, 0), Point(13.699494404228659, 75.98475233927539, 0), Point(13.178291504035123, 76.53218886490413, 0), Point(12.684577852715345, 77.10454019342808, 0), Point(12.219542849699563, 77.70042748036474, 0), Point(11.784306805042297, 78.31841518104633, 0), Point(11.379918240497304, 78.95701450897259, 0), Point(11.007351363536827, 79.61468702242783, 0), Point(10.667503720400466, 80.28984833072185, 0), Point(10.361194033827676, 80.98087191112582, 0), Point(10.089160230682971, 81.686093027308, 0), Point(9.852057664225473, 82.40381273982946, 0), Point(9.650457535305511, 83.13230199903792, 0), Point(9.484845516291738, 83.86980581049981, 0), Point(9.355620581043857, 84.6145474629356, 0), Point(9.26309404374965, 85.36473280847294, 0), Point(9.207488808941825, 86.11855458490594, 0), Point(9.188938834501476, 86.87419676954818, 0), Point(9.207488808941818, 87.6298389541904, 0), Point(9.263094043749637, 88.3836607306234, 0), Point(9.355620581043839, 89.13384607616074, 0), Point(9.484845516291712, 89.87858772859654, 0), Point(9.65045753530548, 90.61609154005842, 0), Point(9.852057664225436, 91.34458079926688, 0), Point(10.089160230682928, 92.06230051178835, 0), Point(10.361194033827628, 92.76752162797054, 0), Point(10.667503720400411, 93.4585452083745, 0), Point(11.007351363536767, 94.13370651666852, 0), Point(11.37991824049724, 94.79137903012376, 0), Point(11.784306805042227, 95.42997835805002, 0), Point(12.219542849699488, 96.04796605873163, 0), Point(12.684577852715263, 96.6438533456683, 0), Point(13.178291504035037, 97.21620467419224, 0), Point(13.69949440422857, 97.763641199821, 0), Point(14.246930929857314, 98.28484410001454, 0), Point(14.819282258381255, 98.77855775133432, 0), Point(15.415169545317918, 99.2435927543501, 0), Point(16.03315724599951, 99.67882879900738, 0), Point(16.671756573925766, 100.08321736355236, 0), Point(17.329429087381012, 100.45578424051286, 0), Point(18.004590395675027, 100.79563188364921, 0), Point(18.695613976078985, 101.10194157022201, 0), Point(19.400835092261172, 101.37397537336672, 0), Point(20.118554804782637, 101.61107793982421, 0), Point(20.84704406399109, 101.81267806874418, 0), Point(21.584547875452976, 101.97829008775796, 0), Point(22.329289527888776, 102.10751502300585, 0), Point(23.079474873426108, 102.20004156030005, 0), Point(23.8332966498591, 102.25564679510788, 0), Point(24.588938834501338, 102.27419676954824, 0), Point(25.344581019143572, 102.2556467951079, 0), Point(26.098402795576565, 102.20004156030008, 0), Point(26.8485881411139, 102.10751502300589, 0), Point(27.593329793549707, 101.97829008775801, 0), Point(28.33083360501159, 101.81267806874425, 0), Point(29.05932286422005, 101.6110779398243, 0), Point(29.777042576741515, 101.3739753733668, 0), Point(30.482263692923713, 101.10194157022211, 0), Point(31.173287273327674, 100.79563188364934, 0), Point(31.848448581621696, 100.45578424051298, 0), Point(32.50612109507695, 100.0832173635525, 0), Point(33.14472042300321, 99.67882879900753, 0), Point(33.76270812368481, 99.24359275435027, 0), Point(34.35859541062148, 98.77855775133449, 0), Point(34.930946739145426, 98.28484410001472, 0), Point(35.47838326477418, 97.7636411998212, 0), Point(35.999586164967724, 97.21620467419245, 0), Point(36.49329981628751, 96.64385334566852, 0), Point(36.958334819303296, 96.04796605873186, 0), Point(37.39357086396057, 95.42997835805026, 0), Point(37.797959428505564, 94.79137903012402, 0), Point(38.170526305466055, 94.13370651666877, 0), Point(38.51037394860242, 93.45854520837476, 0), Point(38.81668363517522, 92.76752162797081, 0), Point(39.088717438319925, 92.06230051178862, 0), Point(39.325820004777434, 91.34458079926715, 0), Point(39.527420133697404, 90.6160915400587, 0), Point(39.69303215271118, 89.87858772859681, 0), Point(39.82225708795907, 89.13384607616102, 0), Point(39.914783625253285, 88.38366073062369, 0), Point(39.97038886006112, 87.62983895419069, 0), Point(39.988938834501475, 86.87419676954846, 0), Point(39.988938834501475, 86.87419676954823, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(10.054319708170425, 131.59504451739096, 0), Point(33.21502728070671, 139.27238941907802, 0), Point(25.53768237901967, 162.43309699161426, 0), Point(2.3769748064834104, 154.75575208992723, 0), Point(10.054319708170425, 131.59504451739096, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(99.44812055525061, 95.58644847170146, 0), Point(99.42957058081026, 94.83080628705922, 0), Point(99.37396534600244, 94.07698451062623, 0), Point(99.28143880870823, 93.32679916508889, 0), Point(99.15221387346035, 92.58205751265308, 0), Point(98.98660185444659, 91.8445537011912, 0), Point(98.78500172552663, 91.11606444198274, 0), Point(98.54789915906913, 90.39834472946127, 0), Point(98.27586535592442, 89.69312361327908, 0), Point(97.96955566935164, 89.00210003287512, 0), Point(97.62970802621527, 88.3269387245811, 0), Point(97.2571411492548, 87.66926621112584, 0), Point(96.8527525847098, 87.03066688319959, 0), Point(96.41751654005255, 86.41267918251799, 0), Point(95.95248153703676, 85.81679189558133, 0), Point(95.45876788571698, 85.24444056705738, 0), Point(94.93756498552345, 84.69700404142864, 0), Point(94.3901284598947, 84.1758011412351, 0), Point(93.81777713137076, 83.68208748991532, 0), Point(93.22188984443409, 83.21705248689953, 0), Point(92.60390214375249, 82.78181644224227, 0), Point(91.96530281582623, 82.37742787769727, 0), Point(91.30763030237098, 82.0048610007368, 0), Point(90.63246899407696, 81.66501335760044, 0), Point(89.941445413673, 81.35870367102765, 0), Point(89.2362242974908, 81.08666986788295, 0), Point(88.51850458496934, 80.84956730142545, 0), Point(87.79001532576088, 80.64796717250549, 0), Point(87.052511514299, 80.48235515349171, 0), Point(86.30776986186319, 80.35313021824383, 0), Point(85.55758451632585, 80.26060368094963, 0), Point(84.80376273989285, 80.2049984461418, 0), Point(84.04812055525062, 80.18644847170145, 0), Point(83.29247837060838, 80.2049984461418, 0), Point(82.53865659417538, 80.26060368094963, 0), Point(81.78847124863805, 80.35313021824383, 0), Point(81.04372959620224, 80.48235515349171, 0), Point(80.30622578474035, 80.64796717250547, 0), Point(79.57773652553189, 80.84956730142544, 0), Point(78.86001681301042, 81.08666986788293, 0), Point(78.15479569682822, 81.35870367102764, 0), Point(77.46377211642427, 81.66501335760043, 0), Point(76.78861080813024, 82.00486100073678, 0), Point(76.130938294675, 82.37742787769727, 0), Point(75.49233896674875, 82.78181644224226, 0), Point(74.87435126606715, 83.21705248689952, 0), Point(74.27846397913048, 83.6820874899153, 0), Point(73.70611265060654, 84.17580114123507, 0), Point(73.15867612497779, 84.69700404142861, 0), Point(72.63747322478426, 85.24444056705735, 0), Point(72.14375957346448, 85.8167918955813, 0), Point(71.6787245704487, 86.41267918251796, 0), Point(71.24348852579142, 87.03066688319956, 0), Point(70.83909996124643, 87.66926621112582, 0), Point(70.46653308428596, 88.32693872458105, 0), Point(70.12668544114959, 89.00210003287508, 0), Point(69.8203757545768, 89.69312361327904, 0), Point(69.54834195143209, 90.39834472946123, 0), Point(69.3112393849746, 91.11606444198269, 0), Point(69.10963925605463, 91.84455370119115, 0), Point(68.94402723704087, 92.58205751265304, 0), Point(68.81480230179298, 93.32679916508883, 0), Point(68.72227576449878, 94.07698451062616, 0), Point(68.66667052969095, 94.83080628705916, 0), Point(68.6481205552506, 95.5864484717014, 0), Point(68.66667052969095, 96.34209065634363, 0), Point(68.72227576449876, 97.09591243277663, 0), Point(68.81480230179297, 97.84609777831396, 0), Point(68.94402723704084, 98.59083943074977, 0), Point(69.1096392560546, 99.32834324221164, 0), Point(69.31123938497457, 100.0568325014201, 0), Point(69.54834195143206, 100.77455221394158, 0), Point(69.82037575457676, 101.47977333012376, 0), Point(70.12668544114953, 102.17079691052773, 0), Point(70.4665330842859, 102.84595821882175, 0), Point(70.83909996124638, 103.50363073227699, 0), Point(71.24348852579135, 104.14223006020325, 0), Point(71.67872457044862, 104.76021776088486, 0), Point(72.1437595734644, 105.35610504782153, 0), Point(72.63747322478417, 105.92845637634547, 0), Point(73.1586761249777, 106.47589290197422, 0), Point(73.70611265060644, 106.99709580216776, 0), Point(74.27846397913038, 107.49080945348754, 0), Point(74.87435126606705, 107.95584445650333, 0), Point(75.49233896674863, 108.3910805011606, 0), Point(76.13093829467489, 108.79546906570559, 0), Point(76.78861080813014, 109.16803594266608, 0), Point(77.46377211642415, 109.50788358580243, 0), Point(78.15479569682812, 109.81419327237523, 0), Point(78.8600168130103, 110.08622707551994, 0), Point(79.57773652553176, 110.32332964197744, 0), Point(80.30622578474022, 110.5249297708974, 0), Point(81.0437295962021, 110.69054178991118, 0), Point(81.7884712486379, 110.81976672515907, 0), Point(82.53865659417524, 110.91229326245328, 0), Point(83.29247837060824, 110.9678984972611, 0), Point(84.04812055525046, 110.98644847170146, 0), Point(84.8037627398927, 110.96789849726112, 0), Point(85.55758451632569, 110.9122932624533, 0), Point(86.30776986186304, 110.81976672515911, 0), Point(87.05251151429883, 110.69054178991124, 0), Point(87.79001532576072, 110.52492977089747, 0), Point(88.51850458496918, 110.32332964197752, 0), Point(89.23622429749065, 110.08622707552003, 0), Point(89.94144541367284, 109.81419327237533, 0), Point(90.6324689940768, 109.50788358580256, 0), Point(91.30763030237082, 109.16803594266621, 0), Point(91.96530281582608, 108.79546906570573, 0), Point(92.60390214375234, 108.39108050116076, 0), Point(93.22188984443395, 107.9558444565035, 0), Point(93.8177771313706, 107.49080945348771, 0), Point(94.39012845989456, 106.99709580216795, 0), Point(94.93756498552331, 106.47589290197442, 0), Point(95.45876788571685, 105.92845637634568, 0), Point(95.95248153703663, 105.35610504782174, 0), Point(96.41751654005242, 104.76021776088508, 0), Point(96.85275258470969, 104.14223006020349, 0), Point(97.25714114925469, 103.50363073227724, 0), Point(97.62970802621518, 102.84595821882199, 0), Point(97.96955566935155, 102.17079691052798, 0), Point(98.27586535592434, 101.47977333012403, 0), Point(98.54789915906906, 100.77455221394185, 0), Point(98.78500172552657, 100.05683250142037, 0), Point(98.98660185444653, 99.32834324221193, 0), Point(99.15221387346031, 98.59083943075004, 0), Point(99.2814388087082, 97.84609777831425, 0), Point(99.37396534600242, 97.09591243277691, 0), Point(99.42957058081025, 96.34209065634391, 0), Point(99.44812055525061, 95.58644847170169, 0), Point(99.44812055525061, 95.58644847170146, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(77.3222729222929, 183.66302666560816, 0), Point(77.30372294785255, 182.90738448096593, 0), Point(77.24811771304473, 182.15356270453293, 0), Point(77.15559117575053, 181.40337735899558, 0), Point(77.02636624050265, 180.65863570655978, 0), Point(76.86075422148888, 179.9211318950979, 0), Point(76.65915409256891, 179.19264263588943, 0), Point(76.42205152611142, 178.47492292336798, 0), Point(76.15001772296672, 177.76970180718578, 0), Point(75.84370803639393, 177.07867822678182, 0), Point(75.50386039325757, 176.4035169184878, 0), Point(75.13129351629709, 175.74584440503256, 0), Point(74.7269049517521, 175.10724507710628, 0), Point(74.29166890709483, 174.4892573764247, 0), Point(73.82663390407906, 173.89337008948803, 0), Point(73.33292025275928, 173.32101876096408, 0), Point(72.81171735256574, 172.77358223533534, 0), Point(72.264280826937, 172.2523793351418, 0), Point(71.69192949841305, 171.75866568382202, 0), Point(71.09604221147639, 171.29363068080625, 0), Point(70.47805451079478, 170.85839463614897, 0), Point(69.83945518286853, 170.45400607160397, 0), Point(69.18178266941328, 170.0814391946435, 0), Point(68.50662136111926, 169.74159155150713, 0), Point(67.8155977807153, 169.43528186493435, 0), Point(67.1103766645331, 169.16324806178963, 0), Point(66.39265695201163, 168.92614549533215, 0), Point(65.66416769280318, 168.72454536641217, 0), Point(64.92666388134128, 168.5589333473984, 0), Point(64.18192222890548, 168.42970841215052, 0), Point(63.43173688336814, 168.33718187485633, 0), Point(62.677915106935146, 168.2815766400485, 0), Point(61.922272922292905, 168.26302666560815, 0), Point(61.166630737650664, 168.2815766400485, 0), Point(60.41280896121767, 168.33718187485633, 0), Point(59.66262361568033, 168.42970841215052, 0), Point(58.917881963244525, 168.5589333473984, 0), Point(58.180378151782634, 168.72454536641217, 0), Point(57.45188889257418, 168.92614549533215, 0), Point(56.73416918005271, 169.16324806178963, 0), Point(56.028948063870516, 169.43528186493435, 0), Point(55.33792448346656, 169.74159155150713, 0), Point(54.66276317517254, 170.08143919464348, 0), Point(54.00509066171729, 170.45400607160397, 0), Point(53.36649133379103, 170.85839463614894, 0), Point(52.748503633109436, 171.29363068080622, 0), Point(52.15261634617277, 171.758665683822, 0), Point(51.58026501764883, 172.25237933514177, 0), Point(51.03282849202008, 172.7735822353353, 0), Point(50.511625591826544, 173.32101876096405, 0), Point(50.017911940506764, 173.893370089488, 0), Point(49.552876937490986, 174.48925737642466, 0), Point(49.11764089283372, 175.10724507710626, 0), Point(48.713252328288725, 175.7458444050325, 0), Point(48.34068545132825, 176.40351691848775, 0), Point(48.00083780819189, 177.0786782267818, 0), Point(47.6945281216191, 177.76970180718573, 0), Point(47.42249431847439, 178.47492292336793, 0), Point(47.1853917520169, 179.1926426358894, 0), Point(46.983791623096934, 179.92113189509786, 0), Point(46.818179604083156, 180.65863570655972, 0), Point(46.68895466883528, 181.40337735899553, 0), Point(46.596428131541074, 182.15356270453287, 0), Point(46.540822896733246, 182.90738448096585, 0), Point(46.5222729222929, 183.6630266656081, 0), Point(46.54082289673324, 184.41866885025033, 0), Point(46.59642813154106, 185.17249062668333, 0), Point(46.68895466883526, 185.92267597222065, 0), Point(46.818179604083134, 186.66741762465645, 0), Point(46.9837916230969, 187.40492143611834, 0), Point(47.185391752016855, 188.1334106953268, 0), Point(47.42249431847435, 188.85113040784827, 0), Point(47.69452812161905, 189.55635152403048, 0), Point(48.00083780819183, 190.2473751044344, 0), Point(48.340685451328184, 190.92253641272845, 0), Point(48.71325232828866, 191.5802089261837, 0), Point(49.11764089283365, 192.21880825410994, 0), Point(49.55287693749091, 192.83679595479154, 0), Point(50.017911940506686, 193.43268324172823, 0), Point(50.51162559182646, 194.00503457025218, 0), Point(51.03282849201999, 194.55247109588092, 0), Point(51.580265017648735, 195.07367399607446, 0), Point(52.15261634617268, 195.56738764739424, 0), Point(52.74850363310934, 196.03242265041, 0), Point(53.36649133379093, 196.46765869506729, 0), Point(54.00509066171719, 196.8720472596123, 0), Point(54.66276317517244, 197.24461413657278, 0), Point(55.33792448346645, 197.58446177970913, 0), Point(56.0289480638704, 197.89077146628193, 0), Point(56.7341691800526, 198.16280526942663, 0), Point(57.45188889257406, 198.39990783588414, 0), Point(58.18037815178251, 198.6015079648041, 0), Point(58.9178819632444, 198.76711998381788, 0), Point(59.6626236156802, 198.89634491906577, 0), Point(60.41280896121753, 198.98887145636, 0), Point(61.16663073765052, 199.0444766911678, 0), Point(61.922272922292755, 199.06302666560816, 0), Point(62.677915106935, 199.04447669116783, 0), Point(63.43173688336799, 198.98887145636002, 0), Point(64.18192222890532, 198.8963449190658, 0), Point(64.92666388134113, 198.76711998381793, 0), Point(65.66416769280302, 198.60150796480417, 0), Point(66.39265695201146, 198.39990783588422, 0), Point(67.11037666453294, 198.16280526942674, 0), Point(67.81559778071514, 197.89077146628205, 0), Point(68.5066213611191, 197.58446177970924, 0), Point(69.18178266941311, 197.2446141365729, 0), Point(69.83945518286836, 196.87204725961243, 0), Point(70.47805451079464, 196.46765869506746, 0), Point(71.09604221147623, 196.03242265041018, 0), Point(71.6919294984129, 195.5673876473944, 0), Point(72.26428082693685, 195.07367399607466, 0), Point(72.81171735256561, 194.55247109588112, 0), Point(73.33292025275915, 194.00503457025238, 0), Point(73.82663390407893, 193.43268324172845, 0), Point(74.29166890709472, 192.8367959547918, 0), Point(74.72690495175199, 192.2188082541102, 0), Point(75.13129351629699, 191.58020892618393, 0), Point(75.50386039325747, 190.9225364127287, 0), Point(75.84370803639383, 190.2473751044347, 0), Point(76.15001772296664, 189.55635152403073, 0), Point(76.42205152611135, 188.85113040784853, 0), Point(76.65915409256885, 188.1334106953271, 0), Point(76.86075422148882, 187.40492143611863, 0), Point(77.02636624050261, 186.66741762465674, 0), Point(77.15559117575049, 185.92267597222093, 0), Point(77.2481177130447, 185.1724906266836, 0), Point(77.30372294785255, 184.4186688502506, 0), Point(77.3222729222929, 183.66302666560838, 0), Point(77.3222729222929, 183.66302666560816, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(59.24901859490018, 16.298720516005925, 0), Point(44.32212534542771, 35.600219367619836, 0), Point(25.020626493813793, 20.67332611814736, 0), Point(39.947519743286264, 1.371827266533451, 0), Point(59.24901859490018, 16.298720516005925, 0)]</t>
-  </si>
-  <si>
-    <t>EN-2</t>
-  </si>
-  <si>
-    <t>[Point(25.084000166318354, 9.920157203337922, 0), Point(16.535306280693284, 65.4661726576428, 0), Point(0.9191667045719853, 63.06280320225355, 0), Point(9.467860590197056, 7.516787747948669, 0), Point(25.084000166318354, 9.920157203337922, 0)]</t>
+    <t>[Point(62.35846610001719, 76.88666053822234, 0), Point(62.33545931353598, 75.94946795856866, 0), Point(62.26649437945615, 75.01453315792774, 0), Point(62.151737440344505, 74.08410847612494, 0), Point(61.9914649557189, 73.1604353877143, 0), Point(61.786063036032985, 72.24573910207, 0), Point(61.536026512502374, 71.34222320266211, 0), Point(61.24195774501289, 70.45206433843094, 0), Point(60.90456517098277, 69.57740698004913, 0), Point(60.52466159867496, 68.72035825370396, 0), Point(60.10316224907078, 67.8829828648458, 0), Point(59.64108255102239, 67.06729812413181, 0), Point(59.13953569499581, 66.27526908754795, 0), Point(58.59972995129751, 65.50880382241688, 0), Point(58.02296575924547, 64.76974881069673, 0), Point(57.41063259429692, 64.0598845006443, 0), Point(56.76420562068026, 63.380921017559295, 0), Point(56.08524213759525, 62.73449404394263, 0), Point(55.375377827542835, 62.12216087899408, 0), Point(54.63632281582268, 61.545396686942034, 0), Point(53.869857550691606, 61.00559094324374, 0), Point(53.07782851410774, 60.50404408721715, 0), Point(52.26214377339376, 60.04196438916877, 0), Point(51.4247683845356, 59.62046503956458, 0), Point(50.56771965819042, 59.24056146725677, 0), Point(49.69306229980861, 58.90316889322665, 0), Point(48.802903435577434, 58.60910012573716, 0), Point(47.89938753616954, 58.35906360220656, 0), Point(46.98469125052525, 58.15366168252064, 0), Point(46.06101816211461, 57.99338919789503, 0), Point(45.13059348031181, 57.878632258783384, 0), Point(44.195658679670885, 57.809667324703554, 0), Point(43.258466100017195, 57.78666053822234, 0), Point(42.32127352036351, 57.809667324703554, 0), Point(41.38633871972259, 57.878632258783384, 0), Point(40.45591403791978, 57.99338919789503, 0), Point(39.532240949509145, 58.153661682520635, 0), Point(38.61754466386485, 58.35906360220655, 0), Point(37.71402876445696, 58.60910012573716, 0), Point(36.82386990022579, 58.90316889322665, 0), Point(35.94921254184398, 59.24056146725677, 0), Point(35.09216381549881, 59.62046503956457, 0), Point(34.25478842664064, 60.041964389168754, 0), Point(33.43910368592666, 60.50404408721714, 0), Point(32.6470746493428, 61.00559094324372, 0), Point(31.880609384211724, 61.54539668694201, 0), Point(31.141554372491573, 62.12216087899405, 0), Point(30.431690062439152, 62.73449404394261, 0), Point(29.752726579354146, 63.38092101755927, 0), Point(29.10629960573749, 64.05988450064427, 0), Point(28.49396644078893, 64.76974881069668, 0), Point(27.917202248736892, 65.50880382241684, 0), Point(27.377396505038593, 66.27526908754791, 0), Point(26.87584964901201, 67.06729812413177, 0), Point(26.41376995096363, 67.88298286484574, 0), Point(25.99227060135944, 68.7203582537039, 0), Point(25.61236702905163, 69.57740698004908, 0), Point(25.274974455021507, 70.45206433843089, 0), Point(24.980905687532015, 71.34222320266205, 0), Point(24.73086916400141, 72.24573910206995, 0), Point(24.525467244315497, 73.16043538771423, 0), Point(24.365194759689878, 74.08410847612487, 0), Point(24.250437820578234, 75.01453315792766, 0), Point(24.181472886498398, 75.94946795856859, 0), Point(24.158466100017186, 76.88666053822226, 0), Point(24.18147288649839, 77.82385311787594, 0), Point(24.250437820578217, 78.75878791851687, 0), Point(24.365194759689857, 79.68921260031966, 0), Point(24.525467244315465, 80.6128856887303, 0), Point(24.730869164001373, 81.5275819743746, 0), Point(24.98090568753197, 82.43109787378248, 0), Point(25.274974455021454, 83.32125673801366, 0), Point(25.61236702905157, 84.19591409639547, 0), Point(25.992270601359373, 85.05296282274064, 0), Point(26.413769950963555, 85.8903382115988, 0), Point(26.875849649011933, 86.70602295231278, 0), Point(27.377396505038504, 87.49805198889665, 0), Point(27.9172022487368, 88.26451725402772, 0), Point(28.49396644078883, 89.00357226574788, 0), Point(29.106299605737384, 89.7134365758003, 0), Point(29.75272657935404, 90.39240005888531, 0), Point(30.43169006243904, 91.03882703250197, 0), Point(31.14155437249146, 91.65116019745054, 0), Point(31.880609384211603, 92.22792438950259, 0), Point(32.64707464934267, 92.76773013320089, 0), Point(33.43910368592653, 93.26927698922748, 0), Point(34.25478842664051, 93.73135668727586, 0), Point(35.092163815498665, 94.15285603688005, 0), Point(35.949212541843835, 94.53275960918786, 0), Point(36.823869900225645, 94.870152183218, 0), Point(37.714028764456806, 95.16422095070749, 0), Point(38.61754466386469, 95.4142574742381, 0), Point(39.53224094950898, 95.61965939392401, 0), Point(40.45591403791962, 95.77993187854963, 0), Point(41.38633871972242, 95.89468881766129, 0), Point(42.321273520363334, 95.96365375174113, 0), Point(43.25846610001702, 95.98666053822234, 0), Point(44.19565867967069, 95.96365375174115, 0), Point(45.13059348031162, 95.89468881766132, 0), Point(46.061018162114415, 95.77993187854969, 0), Point(46.98469125052505, 95.61965939392408, 0), Point(47.89938753616934, 95.41425747423818, 0), Point(48.802903435577235, 95.16422095070759, 0), Point(49.6930622998084, 94.87015218321811, 0), Point(50.56771965819022, 94.53275960918799, 0), Point(51.4247683845354, 94.1528560368802, 0), Point(52.26214377339356, 93.73135668727602, 0), Point(53.077828514107544, 93.26927698922765, 0), Point(53.869857550691414, 92.76773013320107, 0), Point(54.636322815822496, 92.22792438950279, 0), Point(55.37537782754265, 91.65116019745076, 0), Point(56.085242137595074, 91.03882703250221, 0), Point(56.76420562068009, 90.39240005888556, 0), Point(57.41063259429676, 89.71343657580056, 0), Point(58.02296575924532, 89.00357226574815, 0), Point(58.59972995129737, 88.26451725402801, 0), Point(59.13953569499567, 87.49805198889695, 0), Point(59.641082551022265, 86.70602295231309, 0), Point(60.10316224907066, 85.89033821159911, 0), Point(60.524661598674854, 85.05296282274095, 0), Point(60.90456517098267, 84.1959140963958, 0), Point(61.2419577450128, 83.32125673801399, 0), Point(61.5360265125023, 82.43109787378282, 0), Point(61.786063036032914, 81.52758197437494, 0), Point(61.99146495571884, 80.61288568873066, 0), Point(62.15173744034446, 79.68921260032002, 0), Point(62.26649437945612, 78.75878791851721, 0), Point(62.33545931353597, 77.8238531178763, 0), Point(62.35846610001719, 76.88666053822261, 0), Point(62.35846610001719, 76.88666053822234, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(96.70728508091233, 89.47557532518783, 0), Point(64.90813831406587, 89.2426270464702, 0), Point(65.1410865927835, 57.44348027962373, 0), Point(96.94023335962996, 57.67642855834136, 0), Point(96.70728508091233, 89.47557532518783, 0)]</t>
   </si>
   <si>
     <t>Total:</t>
@@ -98,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,14 +97,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -190,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,27 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,24 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,16 +384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,54 +401,46 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>4762.880000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3033.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4470.3606823521322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>887.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1146.084415956093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.50606003411760669</v>
+        <v>0.4179804415956093</v>
       </c>
     </row>
   </sheetData>
@@ -542,51 +449,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -595,59 +472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -655,13 +489,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Optimized_bracket.xlsx
+++ b/Optimized_bracket.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Connector Type</t>
   </si>
@@ -35,19 +35,25 @@
     <t>MIL/20-A</t>
   </si>
   <si>
-    <t>[Point(32.840890650138434, 42.15903558294302, 0), Point(2.9727089631885164, 31.24428763737187, 0), Point(13.88745690875967, 1.3761059504219517, 0), Point(43.755638595709584, 12.290853895993102, 0), Point(32.840890650138434, 42.15903558294302, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(57.669141414753426, 11.069446088580783, 0), Point(89.46872276222888, 11.232621225451261, 0), Point(89.3055476253584, 43.032202572926685, 0), Point(57.505966277882976, 42.86902743605622, 0), Point(57.669141414753426, 11.069446088580783, 0)]</t>
+    <t>[Point(89.60472538834694, 69.28908306264503, 0), Point(65.21853600436077, 68.46824974926099, 0), Point(66.0393693177448, 44.08206036527483, 0), Point(90.42555870173096, 44.90289367865887, 0), Point(89.60472538834694, 69.28908306264503, 0)]</t>
   </si>
   <si>
     <t>MIL/24-A</t>
   </si>
   <si>
-    <t>[Point(62.35846610001719, 76.88666053822234, 0), Point(62.33545931353598, 75.94946795856866, 0), Point(62.26649437945615, 75.01453315792774, 0), Point(62.151737440344505, 74.08410847612494, 0), Point(61.9914649557189, 73.1604353877143, 0), Point(61.786063036032985, 72.24573910207, 0), Point(61.536026512502374, 71.34222320266211, 0), Point(61.24195774501289, 70.45206433843094, 0), Point(60.90456517098277, 69.57740698004913, 0), Point(60.52466159867496, 68.72035825370396, 0), Point(60.10316224907078, 67.8829828648458, 0), Point(59.64108255102239, 67.06729812413181, 0), Point(59.13953569499581, 66.27526908754795, 0), Point(58.59972995129751, 65.50880382241688, 0), Point(58.02296575924547, 64.76974881069673, 0), Point(57.41063259429692, 64.0598845006443, 0), Point(56.76420562068026, 63.380921017559295, 0), Point(56.08524213759525, 62.73449404394263, 0), Point(55.375377827542835, 62.12216087899408, 0), Point(54.63632281582268, 61.545396686942034, 0), Point(53.869857550691606, 61.00559094324374, 0), Point(53.07782851410774, 60.50404408721715, 0), Point(52.26214377339376, 60.04196438916877, 0), Point(51.4247683845356, 59.62046503956458, 0), Point(50.56771965819042, 59.24056146725677, 0), Point(49.69306229980861, 58.90316889322665, 0), Point(48.802903435577434, 58.60910012573716, 0), Point(47.89938753616954, 58.35906360220656, 0), Point(46.98469125052525, 58.15366168252064, 0), Point(46.06101816211461, 57.99338919789503, 0), Point(45.13059348031181, 57.878632258783384, 0), Point(44.195658679670885, 57.809667324703554, 0), Point(43.258466100017195, 57.78666053822234, 0), Point(42.32127352036351, 57.809667324703554, 0), Point(41.38633871972259, 57.878632258783384, 0), Point(40.45591403791978, 57.99338919789503, 0), Point(39.532240949509145, 58.153661682520635, 0), Point(38.61754466386485, 58.35906360220655, 0), Point(37.71402876445696, 58.60910012573716, 0), Point(36.82386990022579, 58.90316889322665, 0), Point(35.94921254184398, 59.24056146725677, 0), Point(35.09216381549881, 59.62046503956457, 0), Point(34.25478842664064, 60.041964389168754, 0), Point(33.43910368592666, 60.50404408721714, 0), Point(32.6470746493428, 61.00559094324372, 0), Point(31.880609384211724, 61.54539668694201, 0), Point(31.141554372491573, 62.12216087899405, 0), Point(30.431690062439152, 62.73449404394261, 0), Point(29.752726579354146, 63.38092101755927, 0), Point(29.10629960573749, 64.05988450064427, 0), Point(28.49396644078893, 64.76974881069668, 0), Point(27.917202248736892, 65.50880382241684, 0), Point(27.377396505038593, 66.27526908754791, 0), Point(26.87584964901201, 67.06729812413177, 0), Point(26.41376995096363, 67.88298286484574, 0), Point(25.99227060135944, 68.7203582537039, 0), Point(25.61236702905163, 69.57740698004908, 0), Point(25.274974455021507, 70.45206433843089, 0), Point(24.980905687532015, 71.34222320266205, 0), Point(24.73086916400141, 72.24573910206995, 0), Point(24.525467244315497, 73.16043538771423, 0), Point(24.365194759689878, 74.08410847612487, 0), Point(24.250437820578234, 75.01453315792766, 0), Point(24.181472886498398, 75.94946795856859, 0), Point(24.158466100017186, 76.88666053822226, 0), Point(24.18147288649839, 77.82385311787594, 0), Point(24.250437820578217, 78.75878791851687, 0), Point(24.365194759689857, 79.68921260031966, 0), Point(24.525467244315465, 80.6128856887303, 0), Point(24.730869164001373, 81.5275819743746, 0), Point(24.98090568753197, 82.43109787378248, 0), Point(25.274974455021454, 83.32125673801366, 0), Point(25.61236702905157, 84.19591409639547, 0), Point(25.992270601359373, 85.05296282274064, 0), Point(26.413769950963555, 85.8903382115988, 0), Point(26.875849649011933, 86.70602295231278, 0), Point(27.377396505038504, 87.49805198889665, 0), Point(27.9172022487368, 88.26451725402772, 0), Point(28.49396644078883, 89.00357226574788, 0), Point(29.106299605737384, 89.7134365758003, 0), Point(29.75272657935404, 90.39240005888531, 0), Point(30.43169006243904, 91.03882703250197, 0), Point(31.14155437249146, 91.65116019745054, 0), Point(31.880609384211603, 92.22792438950259, 0), Point(32.64707464934267, 92.76773013320089, 0), Point(33.43910368592653, 93.26927698922748, 0), Point(34.25478842664051, 93.73135668727586, 0), Point(35.092163815498665, 94.15285603688005, 0), Point(35.949212541843835, 94.53275960918786, 0), Point(36.823869900225645, 94.870152183218, 0), Point(37.714028764456806, 95.16422095070749, 0), Point(38.61754466386469, 95.4142574742381, 0), Point(39.53224094950898, 95.61965939392401, 0), Point(40.45591403791962, 95.77993187854963, 0), Point(41.38633871972242, 95.89468881766129, 0), Point(42.321273520363334, 95.96365375174113, 0), Point(43.25846610001702, 95.98666053822234, 0), Point(44.19565867967069, 95.96365375174115, 0), Point(45.13059348031162, 95.89468881766132, 0), Point(46.061018162114415, 95.77993187854969, 0), Point(46.98469125052505, 95.61965939392408, 0), Point(47.89938753616934, 95.41425747423818, 0), Point(48.802903435577235, 95.16422095070759, 0), Point(49.6930622998084, 94.87015218321811, 0), Point(50.56771965819022, 94.53275960918799, 0), Point(51.4247683845354, 94.1528560368802, 0), Point(52.26214377339356, 93.73135668727602, 0), Point(53.077828514107544, 93.26927698922765, 0), Point(53.869857550691414, 92.76773013320107, 0), Point(54.636322815822496, 92.22792438950279, 0), Point(55.37537782754265, 91.65116019745076, 0), Point(56.085242137595074, 91.03882703250221, 0), Point(56.76420562068009, 90.39240005888556, 0), Point(57.41063259429676, 89.71343657580056, 0), Point(58.02296575924532, 89.00357226574815, 0), Point(58.59972995129737, 88.26451725402801, 0), Point(59.13953569499567, 87.49805198889695, 0), Point(59.641082551022265, 86.70602295231309, 0), Point(60.10316224907066, 85.89033821159911, 0), Point(60.524661598674854, 85.05296282274095, 0), Point(60.90456517098267, 84.1959140963958, 0), Point(61.2419577450128, 83.32125673801399, 0), Point(61.5360265125023, 82.43109787378282, 0), Point(61.786063036032914, 81.52758197437494, 0), Point(61.99146495571884, 80.61288568873066, 0), Point(62.15173744034446, 79.68921260032002, 0), Point(62.26649437945612, 78.75878791851721, 0), Point(62.33545931353597, 77.8238531178763, 0), Point(62.35846610001719, 76.88666053822261, 0), Point(62.35846610001719, 76.88666053822234, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(96.70728508091233, 89.47557532518783, 0), Point(64.90813831406587, 89.2426270464702, 0), Point(65.1410865927835, 57.44348027962373, 0), Point(96.94023335962996, 57.67642855834136, 0), Point(96.70728508091233, 89.47557532518783, 0)]</t>
+    <t>[Point(98.71116475058025, 20.61456061554666, 0), Point(98.6926147761399, 19.858918430904424, 0), Point(98.63700954133208, 19.10509665447143, 0), Point(98.54448300403787, 18.354911308934092, 0), Point(98.41525806879, 17.61016965649829, 0), Point(98.24964604977623, 16.8726658450364, 0), Point(98.04804592085627, 16.144176585827946, 0), Point(97.81094335439877, 15.426456873306478, 0), Point(97.53890955125406, 14.721235757124285, 0), Point(97.23259986468128, 14.030212176720323, 0), Point(96.89275222154492, 13.355050868426304, 0), Point(96.52018534458443, 12.697378354971054, 0), Point(96.11579678003945, 12.058779027044794, 0), Point(95.68056073538219, 11.440791326363197, 0), Point(95.2155257323664, 10.84490403942653, 0), Point(94.72181208104662, 10.272552710902586, 0), Point(94.20060918085309, 9.725116185273839, 0), Point(93.65317265522434, 9.2039132850803, 0), Point(93.0808213267004, 8.710199633760523, 0), Point(92.48493403976373, 8.245164630744737, 0), Point(91.86694633908213, 7.809928586087473, 0), Point(91.22834701115588, 7.40554002154248, 0), Point(90.57067449770062, 7.032973144582002, 0), Point(89.8955131894066, 6.693125501445641, 0), Point(89.20448960900264, 6.38681581487285, 0), Point(88.49926849282045, 6.1147820117281455, 0), Point(87.78154878029898, 5.877679445270649, 0), Point(87.05305952109052, 5.6760793163506875, 0), Point(86.31555570962863, 5.510467297336914, 0), Point(85.57081405719283, 5.381242362089035, 0), Point(84.82062871165549, 5.28871582479483, 0), Point(84.06680693522249, 5.233110589987007, 0), Point(83.31116475058026, 5.214560615546661, 0), Point(82.55552256593802, 5.233110589987007, 0), Point(81.80170078950502, 5.288715824794828, 0), Point(81.05151544396767, 5.381242362089033, 0), Point(80.30677379153188, 5.510467297336911, 0), Point(79.56926998006999, 5.676079316350682, 0), Point(78.84078072086153, 5.877679445270644, 0), Point(78.12306100834006, 6.11478201172814, 0), Point(77.41783989215787, 6.386815814872845, 0), Point(76.72681631175391, 6.693125501445632, 0), Point(76.05165500345989, 7.032973144581991, 0), Point(75.39398249000465, 7.405540021542468, 0), Point(74.75538316207837, 7.809928586087457, 0), Point(74.13739546139678, 8.245164630744721, 0), Point(73.54150817446012, 8.710199633760501, 0), Point(72.96915684593618, 9.20391328508028, 0), Point(72.42172032030743, 9.725116185273814, 0), Point(71.90051742011389, 10.272552710902561, 0), Point(71.40680376879412, 10.8449040394265, 0), Point(70.94176876577833, 11.440791326363163, 0), Point(70.50653272112106, 12.05877902704476, 0), Point(70.10214415657607, 12.697378354971018, 0), Point(69.7295772796156, 13.355050868426265, 0), Point(69.38972963647923, 14.03021217672028, 0), Point(69.08341994990644, 14.72123575712424, 0), Point(68.81138614676175, 15.42645687330643, 0), Point(68.57428358030424, 16.144176585827896, 0), Point(68.37268345138428, 16.872665845036348, 0), Point(68.20707143237051, 17.610169656498236, 0), Point(68.07784649712262, 18.354911308934035, 0), Point(67.98531995982842, 19.10509665447137, 0), Point(67.9297147250206, 19.858918430904364, 0), Point(67.91116475058024, 20.614560615546598, 0), Point(67.92971472502059, 21.37020280018883, 0), Point(67.9853199598284, 22.124024576621828, 0), Point(68.07784649712261, 22.87420992215916, 0), Point(68.20707143237048, 23.618951574594966, 0), Point(68.37268345138425, 24.35645538605685, 0), Point(68.57428358030421, 25.084944645265306, 0), Point(68.81138614676169, 25.802664357786774, 0), Point(69.0834199499064, 26.507885473968965, 0), Point(69.38972963647919, 27.198909054372926, 0), Point(69.72957727961554, 27.87407036266695, 0), Point(70.102144156576, 28.531742876122195, 0), Point(70.506532721121, 29.170342204048456, 0), Point(70.94176876577826, 29.788329904730055, 0), Point(71.40680376879403, 30.384217191666725, 0), Point(71.9005174201138, 30.956568520190668, 0), Point(72.42172032030734, 31.50400504581942, 0), Point(72.96915684593608, 32.025207946012955, 0), Point(73.54150817446002, 32.51892159733275, 0), Point(74.1373954613967, 32.983956600348534, 0), Point(74.75538316207829, 33.4191926450058, 0), Point(75.39398249000453, 33.823581209550795, 0), Point(76.05165500345979, 34.19614808651127, 0), Point(76.7268163117538, 34.53599572964764, 0), Point(77.41783989215776, 34.842305416220434, 0), Point(78.12306100833995, 35.11433921936514, 0), Point(78.8407807208614, 35.351441785822644, 0), Point(79.56926998006986, 35.55304191474261, 0), Point(80.30677379153174, 35.718653933756386, 0), Point(81.05151544396755, 35.84787886900427, 0), Point(81.80170078950488, 35.94040540629848, 0), Point(82.55552256593788, 35.99601064110631, 0), Point(83.3111647505801, 36.014560615546664, 0), Point(84.06680693522235, 35.996010641106324, 0), Point(84.82062871165533, 35.94040540629851, 0), Point(85.57081405719268, 35.84787886900431, 0), Point(86.31555570962847, 35.71865393375644, 0), Point(87.05305952109036, 35.55304191474268, 0), Point(87.78154878029882, 35.35144178582272, 0), Point(88.49926849282029, 35.114339219365235, 0), Point(89.20448960900248, 34.84230541622054, 0), Point(89.89551318940644, 34.53599572964776, 0), Point(90.57067449770047, 34.19614808651141, 0), Point(91.22834701115572, 33.82358120955094, 0), Point(91.86694633908198, 33.41919264500595, 0), Point(92.48493403976357, 32.9839566003487, 0), Point(93.08082132670026, 32.51892159733292, 0), Point(93.6531726552242, 32.025207946013154, 0), Point(94.20060918085295, 31.504005045819625, 0), Point(94.7218120810465, 30.95656852019088, 0), Point(95.21552573236627, 30.38421719166695, 0), Point(95.68056073538207, 29.78832990473029, 0), Point(96.11579678003933, 29.170342204048694, 0), Point(96.52018534458433, 28.531742876122443, 0), Point(96.89275222154482, 27.874070362667197, 0), Point(97.23259986468119, 27.198909054373186, 0), Point(97.53890955125398, 26.507885473969232, 0), Point(97.8109433543987, 25.802664357787044, 0), Point(98.0480459208562, 25.08494464526558, 0), Point(98.24964604977617, 24.356455386057128, 0), Point(98.41525806878995, 23.618951574595243, 0), Point(98.54448300403784, 22.874209922159444, 0), Point(98.63700954133206, 22.124024576622112, 0), Point(98.69261477613989, 21.37020280018912, 0), Point(98.71116475058025, 20.614560615546885, 0), Point(98.71116475058025, 20.61456061554666, 0)]</t>
+  </si>
+  <si>
+    <t>EN-2</t>
+  </si>
+  <si>
+    <t>[Point(48.79868289900301, 60.10090088381766, 0), Point(41.60090275124469, 4.363732307144005, 0), Point(57.27078288490027, 2.34015710546106, 0), Point(64.4685630326586, 58.077325682134706, 0), Point(48.79868289900301, 60.10090088381766, 0)]</t>
+  </si>
+  <si>
+    <t>EN-4</t>
+  </si>
+  <si>
+    <t>[Point(34.524940863504455, 0.7299328297175851, 0), Point(44.693303994465, 86.83158433093398, 0), Point(29.002345589399035, 88.68464243323129, 0), Point(18.83398245843849, 2.5829909320148934, 0), Point(34.524940863504455, 0.7299328297175851, 0)]</t>
   </si>
   <si>
     <t>Total:</t>
@@ -410,26 +416,48 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3033.72</v>
+        <v>595.3600000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1146.084415956093</v>
+        <v>745.0601137253554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>887.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1369.86</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -437,10 +465,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.4179804415956093</v>
+        <v>0.3598240113725356</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +478,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,11 +487,6 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -481,7 +504,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -496,7 +519,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -508,7 +537,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Optimized_bracket.xlsx
+++ b/Optimized_bracket.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Connector Type</t>
   </si>
@@ -35,25 +35,22 @@
     <t>MIL/20-A</t>
   </si>
   <si>
-    <t>[Point(89.60472538834694, 69.28908306264503, 0), Point(65.21853600436077, 68.46824974926099, 0), Point(66.0393693177448, 44.08206036527483, 0), Point(90.42555870173096, 44.90289367865887, 0), Point(89.60472538834694, 69.28908306264503, 0)]</t>
-  </si>
-  <si>
-    <t>MIL/24-A</t>
-  </si>
-  <si>
-    <t>[Point(98.71116475058025, 20.61456061554666, 0), Point(98.6926147761399, 19.858918430904424, 0), Point(98.63700954133208, 19.10509665447143, 0), Point(98.54448300403787, 18.354911308934092, 0), Point(98.41525806879, 17.61016965649829, 0), Point(98.24964604977623, 16.8726658450364, 0), Point(98.04804592085627, 16.144176585827946, 0), Point(97.81094335439877, 15.426456873306478, 0), Point(97.53890955125406, 14.721235757124285, 0), Point(97.23259986468128, 14.030212176720323, 0), Point(96.89275222154492, 13.355050868426304, 0), Point(96.52018534458443, 12.697378354971054, 0), Point(96.11579678003945, 12.058779027044794, 0), Point(95.68056073538219, 11.440791326363197, 0), Point(95.2155257323664, 10.84490403942653, 0), Point(94.72181208104662, 10.272552710902586, 0), Point(94.20060918085309, 9.725116185273839, 0), Point(93.65317265522434, 9.2039132850803, 0), Point(93.0808213267004, 8.710199633760523, 0), Point(92.48493403976373, 8.245164630744737, 0), Point(91.86694633908213, 7.809928586087473, 0), Point(91.22834701115588, 7.40554002154248, 0), Point(90.57067449770062, 7.032973144582002, 0), Point(89.8955131894066, 6.693125501445641, 0), Point(89.20448960900264, 6.38681581487285, 0), Point(88.49926849282045, 6.1147820117281455, 0), Point(87.78154878029898, 5.877679445270649, 0), Point(87.05305952109052, 5.6760793163506875, 0), Point(86.31555570962863, 5.510467297336914, 0), Point(85.57081405719283, 5.381242362089035, 0), Point(84.82062871165549, 5.28871582479483, 0), Point(84.06680693522249, 5.233110589987007, 0), Point(83.31116475058026, 5.214560615546661, 0), Point(82.55552256593802, 5.233110589987007, 0), Point(81.80170078950502, 5.288715824794828, 0), Point(81.05151544396767, 5.381242362089033, 0), Point(80.30677379153188, 5.510467297336911, 0), Point(79.56926998006999, 5.676079316350682, 0), Point(78.84078072086153, 5.877679445270644, 0), Point(78.12306100834006, 6.11478201172814, 0), Point(77.41783989215787, 6.386815814872845, 0), Point(76.72681631175391, 6.693125501445632, 0), Point(76.05165500345989, 7.032973144581991, 0), Point(75.39398249000465, 7.405540021542468, 0), Point(74.75538316207837, 7.809928586087457, 0), Point(74.13739546139678, 8.245164630744721, 0), Point(73.54150817446012, 8.710199633760501, 0), Point(72.96915684593618, 9.20391328508028, 0), Point(72.42172032030743, 9.725116185273814, 0), Point(71.90051742011389, 10.272552710902561, 0), Point(71.40680376879412, 10.8449040394265, 0), Point(70.94176876577833, 11.440791326363163, 0), Point(70.50653272112106, 12.05877902704476, 0), Point(70.10214415657607, 12.697378354971018, 0), Point(69.7295772796156, 13.355050868426265, 0), Point(69.38972963647923, 14.03021217672028, 0), Point(69.08341994990644, 14.72123575712424, 0), Point(68.81138614676175, 15.42645687330643, 0), Point(68.57428358030424, 16.144176585827896, 0), Point(68.37268345138428, 16.872665845036348, 0), Point(68.20707143237051, 17.610169656498236, 0), Point(68.07784649712262, 18.354911308934035, 0), Point(67.98531995982842, 19.10509665447137, 0), Point(67.9297147250206, 19.858918430904364, 0), Point(67.91116475058024, 20.614560615546598, 0), Point(67.92971472502059, 21.37020280018883, 0), Point(67.9853199598284, 22.124024576621828, 0), Point(68.07784649712261, 22.87420992215916, 0), Point(68.20707143237048, 23.618951574594966, 0), Point(68.37268345138425, 24.35645538605685, 0), Point(68.57428358030421, 25.084944645265306, 0), Point(68.81138614676169, 25.802664357786774, 0), Point(69.0834199499064, 26.507885473968965, 0), Point(69.38972963647919, 27.198909054372926, 0), Point(69.72957727961554, 27.87407036266695, 0), Point(70.102144156576, 28.531742876122195, 0), Point(70.506532721121, 29.170342204048456, 0), Point(70.94176876577826, 29.788329904730055, 0), Point(71.40680376879403, 30.384217191666725, 0), Point(71.9005174201138, 30.956568520190668, 0), Point(72.42172032030734, 31.50400504581942, 0), Point(72.96915684593608, 32.025207946012955, 0), Point(73.54150817446002, 32.51892159733275, 0), Point(74.1373954613967, 32.983956600348534, 0), Point(74.75538316207829, 33.4191926450058, 0), Point(75.39398249000453, 33.823581209550795, 0), Point(76.05165500345979, 34.19614808651127, 0), Point(76.7268163117538, 34.53599572964764, 0), Point(77.41783989215776, 34.842305416220434, 0), Point(78.12306100833995, 35.11433921936514, 0), Point(78.8407807208614, 35.351441785822644, 0), Point(79.56926998006986, 35.55304191474261, 0), Point(80.30677379153174, 35.718653933756386, 0), Point(81.05151544396755, 35.84787886900427, 0), Point(81.80170078950488, 35.94040540629848, 0), Point(82.55552256593788, 35.99601064110631, 0), Point(83.3111647505801, 36.014560615546664, 0), Point(84.06680693522235, 35.996010641106324, 0), Point(84.82062871165533, 35.94040540629851, 0), Point(85.57081405719268, 35.84787886900431, 0), Point(86.31555570962847, 35.71865393375644, 0), Point(87.05305952109036, 35.55304191474268, 0), Point(87.78154878029882, 35.35144178582272, 0), Point(88.49926849282029, 35.114339219365235, 0), Point(89.20448960900248, 34.84230541622054, 0), Point(89.89551318940644, 34.53599572964776, 0), Point(90.57067449770047, 34.19614808651141, 0), Point(91.22834701115572, 33.82358120955094, 0), Point(91.86694633908198, 33.41919264500595, 0), Point(92.48493403976357, 32.9839566003487, 0), Point(93.08082132670026, 32.51892159733292, 0), Point(93.6531726552242, 32.025207946013154, 0), Point(94.20060918085295, 31.504005045819625, 0), Point(94.7218120810465, 30.95656852019088, 0), Point(95.21552573236627, 30.38421719166695, 0), Point(95.68056073538207, 29.78832990473029, 0), Point(96.11579678003933, 29.170342204048694, 0), Point(96.52018534458433, 28.531742876122443, 0), Point(96.89275222154482, 27.874070362667197, 0), Point(97.23259986468119, 27.198909054373186, 0), Point(97.53890955125398, 26.507885473969232, 0), Point(97.8109433543987, 25.802664357787044, 0), Point(98.0480459208562, 25.08494464526558, 0), Point(98.24964604977617, 24.356455386057128, 0), Point(98.41525806878995, 23.618951574595243, 0), Point(98.54448300403784, 22.874209922159444, 0), Point(98.63700954133206, 22.124024576622112, 0), Point(98.69261477613989, 21.37020280018912, 0), Point(98.71116475058025, 20.614560615546885, 0), Point(98.71116475058025, 20.61456061554666, 0)]</t>
-  </si>
-  <si>
-    <t>EN-2</t>
-  </si>
-  <si>
-    <t>[Point(48.79868289900301, 60.10090088381766, 0), Point(41.60090275124469, 4.363732307144005, 0), Point(57.27078288490027, 2.34015710546106, 0), Point(64.4685630326586, 58.077325682134706, 0), Point(48.79868289900301, 60.10090088381766, 0)]</t>
-  </si>
-  <si>
-    <t>EN-4</t>
-  </si>
-  <si>
-    <t>[Point(34.524940863504455, 0.7299328297175851, 0), Point(44.693303994465, 86.83158433093398, 0), Point(29.002345589399035, 88.68464243323129, 0), Point(18.83398245843849, 2.5829909320148934, 0), Point(34.524940863504455, 0.7299328297175851, 0)]</t>
+    <t>[Point(62.99246914723173, 45.17086888108251, 0), Point(92.79246914723169, 45.17086888108251, 0), Point(92.7924691472317, 74.97086888108251, 0), Point(62.99246914723172, 74.97086888108251, 0), Point(62.99246914723173, 45.17086888108251, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(32.46265229229685, 60.44622440127652, 0), Point(62.26265229229685, 60.44622440127652, 0), Point(62.26265229229685, 90.24622440127652, 0), Point(32.46265229229685, 90.24622440127652, 0), Point(32.46265229229685, 60.44622440127652, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(36.18620472099126, 12.205209329223827, 0), Point(65.98620472099125, 12.205209329223834, 0), Point(65.98620472099128, 42.005209329223845, 0), Point(36.18620472099127, 42.00520932922382, 0), Point(36.18620472099126, 12.205209329223827, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(1.3387894455201348, 56.073316895347965, 0), Point(31.13878944552014, 56.07331689534797, 0), Point(31.138789445520096, 85.87331689534793, 0), Point(1.3387894455201277, 85.87331689534794, 0), Point(1.3387894455201348, 56.073316895347965, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(4.53940031566459, 25.70931101212161, 0), Point(34.339400315664605, 25.709311012121596, 0), Point(34.33940031566459, 55.50931101212159, 0), Point(4.539400315664604, 55.50931101212159, 0), Point(4.53940031566459, 25.70931101212161, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(97.09290491523366, 36.993505057430866, 0), Point(67.41588157459529, 34.28901145618024, 0), Point(70.12037517584591, 4.611988115541877, 0), Point(99.79739851648428, 7.316481716792495, 0), Point(97.09290491523366, 36.993505057430866, 0)]</t>
   </si>
   <si>
     <t>Total:</t>
@@ -416,59 +413,26 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>595.3600000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>745.0601137253554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>887.96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1369.86</v>
+        <v>5328.240000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3598240113725356</v>
+        <v>0.5328240000000001</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,6 +453,31 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -501,13 +490,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -519,13 +502,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -537,13 +514,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Optimized_bracket.xlsx
+++ b/Optimized_bracket.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Connector Type</t>
   </si>
@@ -35,22 +35,94 @@
     <t>MIL/20-A</t>
   </si>
   <si>
-    <t>[Point(62.99246914723173, 45.17086888108251, 0), Point(92.79246914723169, 45.17086888108251, 0), Point(92.7924691472317, 74.97086888108251, 0), Point(62.99246914723172, 74.97086888108251, 0), Point(62.99246914723173, 45.17086888108251, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(32.46265229229685, 60.44622440127652, 0), Point(62.26265229229685, 60.44622440127652, 0), Point(62.26265229229685, 90.24622440127652, 0), Point(32.46265229229685, 90.24622440127652, 0), Point(32.46265229229685, 60.44622440127652, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(36.18620472099126, 12.205209329223827, 0), Point(65.98620472099125, 12.205209329223834, 0), Point(65.98620472099128, 42.005209329223845, 0), Point(36.18620472099127, 42.00520932922382, 0), Point(36.18620472099126, 12.205209329223827, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(1.3387894455201348, 56.073316895347965, 0), Point(31.13878944552014, 56.07331689534797, 0), Point(31.138789445520096, 85.87331689534793, 0), Point(1.3387894455201277, 85.87331689534794, 0), Point(1.3387894455201348, 56.073316895347965, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(4.53940031566459, 25.70931101212161, 0), Point(34.339400315664605, 25.709311012121596, 0), Point(34.33940031566459, 55.50931101212159, 0), Point(4.539400315664604, 55.50931101212159, 0), Point(4.53940031566459, 25.70931101212161, 0)]</t>
-  </si>
-  <si>
-    <t>[Point(97.09290491523366, 36.993505057430866, 0), Point(67.41588157459529, 34.28901145618024, 0), Point(70.12037517584591, 4.611988115541877, 0), Point(99.79739851648428, 7.316481716792495, 0), Point(97.09290491523366, 36.993505057430866, 0)]</t>
+    <t>[Point(12.328930592064024, 77.1273358693199, 0), Point(39.12893059206402, 77.1273358693199, 0), Point(39.12893059206402, 103.92733586931989, 0), Point(12.328930592064024, 103.92733586931989, 0), Point(12.328930592064024, 77.1273358693199, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(27.444113105090103, 146.0179517631922, 0), Point(0.6441131050901063, 146.0179517631922, 0), Point(0.6441131050901063, 119.21795176319219, 0), Point(27.444113105090103, 119.21795176319219, 0), Point(27.444113105090103, 146.0179517631922, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(44.7376973096609, 58.47599510947116, 0), Point(71.53769730966087, 58.47599510947116, 0), Point(71.53769730966087, 85.27599510947117, 0), Point(44.7376973096609, 85.27599510947117, 0), Point(44.7376973096609, 58.47599510947116, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(3.325964727903923, 75.15796786498784, 0), Point(3.325964727903923, 48.35796786498784, 0), Point(30.12596472790392, 48.35796786498784, 0), Point(30.12596472790392, 75.15796786498784, 0), Point(3.325964727903923, 75.15796786498784, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(72.02999834403305, 76.99249586720697, 0), Point(98.82999834403304, 76.99249586720697, 0), Point(98.82999834403304, 103.79249586720697, 0), Point(72.02999834403305, 103.79249586720697, 0), Point(72.02999834403305, 76.99249586720697, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(116.86712743750081, 76.85571428175902, 0), Point(143.66712743750082, 76.85571428175902, 0), Point(143.66712743750082, 103.655714281759, 0), Point(116.86712743750081, 103.655714281759, 0), Point(116.86712743750081, 76.85571428175902, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(41.02325755152649, 126.59743315984362, 0), Point(41.02325755152649, 99.79743315984362, 0), Point(67.8232575515265, 99.79743315984362, 0), Point(67.8232575515265, 126.59743315984362, 0), Point(41.02325755152649, 126.59743315984362, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(43.21828204045926, 136.074661464618, 0), Point(70.01828204045927, 136.074661464618, 0), Point(70.01828204045927, 162.87466146461801, 0), Point(43.21828204045926, 162.87466146461801, 0), Point(43.21828204045926, 136.074661464618, 0)]</t>
+  </si>
+  <si>
+    <t>MIL/24-A</t>
+  </si>
+  <si>
+    <t>[Point(279.52888293370444, 54.454647083977115, 0), Point(279.44894939646287, 52.82756255450641, 0), Point(279.20991858839807, 51.216147738509385, 0), Point(278.8140925068591, 49.63592144155304, 0), Point(278.26528317339177, 48.10210210671662, 0), Point(277.5687759218871, 46.62946125266555, 0), Point(276.73127849792667, 45.23218121585172, 0), Point(275.7608564595258, 43.9237185668606, 0), Point(274.66685550140113, 42.71667451628042, 0), Point(273.45981145082095, 41.62267355815568, 0), Point(272.15134880182984, 40.65225151975486, 0), Point(270.754068765016, 39.81475409579442, 0), Point(269.2814279109649, 39.11824684428976, 0), Point(267.74760857612847, 38.569437510822446, 0), Point(266.16738227917216, 38.17361142928349, 0), Point(264.55596746317514, 37.93458062121864, 0), Point(262.9288829337044, 37.85464708397711, 0), Point(261.3017984042337, 37.93458062121864, 0), Point(259.69038358823667, 38.17361142928349, 0), Point(258.11015729128036, 38.569437510822446, 0), Point(256.5763379564439, 39.11824684428976, 0), Point(255.10369710239286, 39.81475409579442, 0), Point(253.70641706557902, 40.65225151975486, 0), Point(252.3979544165879, 41.622673558155675, 0), Point(251.19091036600773, 42.71667451628042, 0), Point(250.09690940788298, 43.9237185668606, 0), Point(249.12648736948216, 45.23218121585172, 0), Point(248.28898994552173, 46.62946125266555, 0), Point(247.59248269401706, 48.10210210671662, 0), Point(247.04367336054975, 49.63592144155304, 0), Point(246.6478472790108, 51.21614773850938, 0), Point(246.40881647094594, 52.82756255450641, 0), Point(246.32888293370442, 54.454647083977115, 0), Point(246.40881647094594, 56.08173161344782, 0), Point(246.6478472790108, 57.693146429444845, 0), Point(247.04367336054975, 59.273372726401185, 0), Point(247.59248269401706, 60.8071920612376, 0), Point(248.28898994552173, 62.27983291528868, 0), Point(249.12648736948216, 63.677112952102505, 0), Point(250.09690940788298, 64.98557560109363, 0), Point(251.19091036600773, 66.19261965167381, 0), Point(252.39795441658788, 67.28662060979855, 0), Point(253.70641706557902, 68.25704264819936, 0), Point(255.10369710239286, 69.0945400721598, 0), Point(256.5763379564439, 69.79104732366447, 0), Point(258.11015729128036, 70.33985665713178, 0), Point(259.69038358823667, 70.73568273867073, 0), Point(261.3017984042337, 70.97471354673559, 0), Point(262.9288829337044, 71.05464708397712, 0), Point(264.55596746317514, 70.97471354673559, 0), Point(266.16738227917216, 70.73568273867073, 0), Point(267.74760857612847, 70.33985665713179, 0), Point(269.2814279109649, 69.79104732366447, 0), Point(270.754068765016, 69.09454007215982, 0), Point(272.1513488018298, 68.25704264819937, 0), Point(273.45981145082095, 67.28662060979855, 0), Point(274.6668555014011, 66.19261965167381, 0), Point(275.7608564595258, 64.98557560109364, 0), Point(276.73127849792667, 63.67711295210251, 0), Point(277.5687759218871, 62.27983291528868, 0), Point(278.26528317339177, 60.807192061237615, 0), Point(278.8140925068591, 59.27337272640119, 0), Point(279.20991858839807, 57.69314642944485, 0), Point(279.44894939646287, 56.08173161344782, 0), Point(279.52888293370444, 54.454647083977115, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(230.24884719840693, 161.53832169708937, 0), Point(230.16891366116542, 159.91123716761865, 0), Point(229.92988285310057, 158.29982235162163, 0), Point(229.53405677156164, 156.71959605466526, 0), Point(228.98524743809432, 155.18577671982888, 0), Point(228.28874018658965, 153.71313586577782, 0), Point(227.45124276262922, 152.31585582896395, 0), Point(226.48082072422838, 151.00739317997284, 0), Point(225.38681976610363, 149.80034912939266, 0), Point(224.17977571552345, 148.7063481712679, 0), Point(222.87131306653234, 147.73592613286712, 0), Point(221.47403302971853, 146.8984287089067, 0), Point(220.0013921756675, 146.20192145740202, 0), Point(218.46757284083105, 145.6531121239347, 0), Point(216.88734654387474, 145.25728604239572, 0), Point(215.27593172787772, 145.01825523433087, 0), Point(213.648847198407, 144.93832169708935, 0), Point(212.02176266893628, 145.01825523433087, 0), Point(210.41034785293925, 145.25728604239572, 0), Point(208.83012155598288, 145.6531121239347, 0), Point(207.2963022211465, 146.20192145740202, 0), Point(205.82366136709544, 146.8984287089067, 0), Point(204.42638133028157, 147.73592613286712, 0), Point(203.11791868129046, 148.7063481712679, 0), Point(201.91087463071028, 149.80034912939266, 0), Point(200.81687367258553, 151.00739317997284, 0), Point(199.84645163418475, 152.31585582896395, 0), Point(199.00895421022432, 153.71313586577782, 0), Point(198.31244695871965, 155.18577671982888, 0), Point(197.76363762525233, 156.71959605466526, 0), Point(197.36781154371334, 158.29982235162163, 0), Point(197.1287807356485, 159.91123716761865, 0), Point(197.04884719840697, 161.53832169708937, 0), Point(197.1287807356485, 163.16540622656004, 0), Point(197.36781154371334, 164.77682104255712, 0), Point(197.76363762525233, 166.35704733951343, 0), Point(198.31244695871965, 167.89086667434987, 0), Point(199.00895421022426, 169.36350752840093, 0), Point(199.84645163418475, 170.76078756521474, 0), Point(200.81687367258553, 172.06925021420585, 0), Point(201.91087463071028, 173.27629426478603, 0), Point(203.11791868129046, 174.37029522291078, 0), Point(204.42638133028157, 175.34071726131162, 0), Point(205.82366136709544, 176.17821468527205, 0), Point(207.2963022211465, 176.87472193677672, 0), Point(208.83012155598288, 177.42353127024404, 0), Point(210.41034785293925, 177.81935735178297, 0), Point(212.02176266893628, 178.05838815984782, 0), Point(213.648847198407, 178.13832169708934, 0), Point(215.27593172787766, 178.05838815984782, 0), Point(216.88734654387468, 177.81935735178297, 0), Point(218.46757284083105, 177.42353127024404, 0), Point(220.0013921756675, 176.87472193677672, 0), Point(221.47403302971853, 176.17821468527205, 0), Point(222.87131306653234, 175.34071726131162, 0), Point(224.17977571552345, 174.37029522291078, 0), Point(225.38681976610363, 173.27629426478603, 0), Point(226.48082072422838, 172.0692502142059, 0), Point(227.45124276262922, 170.76078756521474, 0), Point(228.28874018658965, 169.36350752840093, 0), Point(228.98524743809432, 167.89086667434987, 0), Point(229.53405677156164, 166.35704733951343, 0), Point(229.92988285310057, 164.77682104255712, 0), Point(230.16891366116542, 163.16540622656004, 0), Point(230.24884719840693, 161.53832169708937, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(74.40542516309068, 154.29491095577276, 0), Point(75.28819190169156, 155.66404072377827, 0), Point(76.30090606176134, 156.9400514864339, 0), Point(77.43381465233273, 158.11065456255682, 0), Point(78.67600714436759, 159.16457640460726, 0), Point(80.01552054511626, 160.09166716911398, 0), Point(81.43945460827695, 160.8829984652154, 0), Point(82.93409607041986, 161.53094933994436, 0), Point(84.48505071721053, 162.0292796721713, 0), Point(86.07738200756216, 162.37319026838173, 0), Point(87.69575492069202, 162.5593690815336, 0), Point(89.32458364075387, 162.5860231078804, 0), Point(90.9481816567652, 162.45289565457801, 0), Point(92.55091283228296, 162.1612688117765, 0), Point(94.11734198994486, 161.71395110539152, 0), Point(95.63238356066535, 161.11525044946427, 0), Point(97.08144686591237, 160.37093265859443, 0), Point(98.45057663391788, 159.4881659199936, 0), Point(99.7265873965735, 158.47545175992377, 0), Point(100.89719047269642, 157.34254316935244, 0), Point(101.95111231474687, 156.10035067731752, 0), Point(102.87820307925358, 154.76083727656885, 0), Point(103.669534375355, 153.33690321340816, 0), Point(104.31748525008396, 151.84226175126526, 0), Point(104.8158155823109, 150.29130710447458, 0), Point(105.1597261785214, 148.69897581412295, 0), Point(105.3459049916732, 147.08060290099314, 0), Point(105.37255901802007, 145.4517741809313, 0), Point(105.23943156471762, 143.8281761649199, 0), Point(104.9478047219161, 142.22544498940215, 0), Point(104.50048701553112, 140.6590158317403, 0), Point(103.90178635960388, 139.14397426101982, 0), Point(103.15746856873403, 137.69491095577274, 0), Point(102.27470183013321, 136.32578118776723, 0), Point(101.26198767006338, 135.0497704251116, 0), Point(100.12907907949204, 133.8791673489887, 0), Point(98.88688658745713, 132.82524550693824, 0), Point(97.54737318670846, 131.89815474243153, 0), Point(96.12343912354777, 131.10682344633017, 0), Point(94.62879766140486, 130.45887257160115, 0), Point(93.07784301461425, 129.9605422393742, 0), Point(91.48551172426255, 129.61663164316377, 0), Point(89.86713881113275, 129.43045283001192, 0), Point(88.2383100910709, 129.4037988036651, 0), Point(86.61471207505951, 129.53692625696755, 0), Point(85.01198089954175, 129.828553099769, 0), Point(83.44555174187991, 130.275870806154, 0), Point(81.93051017115943, 130.87457146208124, 0), Point(80.4814468659124, 131.61888925295108, 0), Point(79.11231709790684, 132.5016559915519, 0), Point(77.83630633525121, 133.51437015162173, 0), Point(76.66570325912829, 134.64727874219312, 0), Point(75.61178141707785, 135.88947123422804, 0), Point(74.68469065257119, 137.22898463497665, 0), Point(73.89335935646977, 138.65291869813734, 0), Point(73.24540848174075, 140.14756016028025, 0), Point(72.74707814951387, 141.69851480707092, 0), Point(72.40316755330338, 143.29084609742256, 0), Point(72.21698874015158, 144.90921901055242, 0), Point(72.1903347138047, 146.53804773061427, 0), Point(72.3234621671071, 148.1616457466256, 0), Point(72.61508900990862, 149.76437692214336, 0), Point(73.0624067162936, 151.3308060798052, 0), Point(73.66110737222084, 152.84584765052574, 0), Point(74.40542516309068, 154.29491095577276, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(245.25532400147873, 33.912622587238886, 0), Point(245.17539046423715, 32.28553805776818, 0), Point(244.9363596561723, 30.674123241771156, 0), Point(244.54053357463337, 29.093896944814816, 0), Point(243.99172424116605, 27.560077609978393, 0), Point(243.29521698966138, 26.087436755927328, 0), Point(242.45771956570096, 24.69015671911349, 0), Point(241.48729752730011, 23.381694070122364, 0), Point(240.39329656917542, 22.1746500195422, 0), Point(239.18625251859524, 21.080649061417446, 0), Point(237.87778986960413, 20.110227023016634, 0), Point(236.48050983279026, 19.27272959905619, 0), Point(235.0078689787392, 18.57622234755152, 0), Point(233.47404964390276, 18.027413014084217, 0), Point(231.89382334694645, 17.63158693254526, 0), Point(230.28240853094943, 17.39255612448042, 0), Point(228.6553240014787, 17.312622587238877, 0), Point(227.02823947200798, 17.39255612448042, 0), Point(225.41682465601096, 17.63158693254526, 0), Point(223.83659835905465, 18.027413014084217, 0), Point(222.3027790242182, 18.57622234755152, 0), Point(220.83013817016715, 19.27272959905619, 0), Point(219.43285813335334, 20.110227023016634, 0), Point(218.12439548436217, 21.080649061417446, 0), Point(216.917351433782, 22.1746500195422, 0), Point(215.8233504756573, 23.381694070122364, 0), Point(214.85292843725645, 24.69015671911349, 0), Point(214.01543101329602, 26.087436755927328, 0), Point(213.31892376179135, 27.560077609978393, 0), Point(212.77011442832404, 29.093896944814816, 0), Point(212.3742883467851, 30.674123241771156, 0), Point(212.13525753872025, 32.28553805776818, 0), Point(212.05532400147868, 33.912622587238886, 0), Point(212.13525753872025, 35.53970711670959, 0), Point(212.3742883467851, 37.151121932706616, 0), Point(212.77011442832404, 38.731348229662956, 0), Point(213.31892376179135, 40.26516756449938, 0), Point(214.01543101329602, 41.73780841855044, 0), Point(214.85292843725645, 43.13508845536428, 0), Point(215.8233504756573, 44.44355110435539, 0), Point(216.917351433782, 45.65059515493557, 0), Point(218.12439548436217, 46.74459611306031, 0), Point(219.43285813335334, 47.71501815146114, 0), Point(220.83013817016715, 48.55251557542158, 0), Point(222.3027790242182, 49.24902282692625, 0), Point(223.83659835905465, 49.797832160393554, 0), Point(225.41682465601096, 50.19365824193251, 0), Point(227.02823947200798, 50.43268904999735, 0), Point(228.6553240014787, 50.512622587238894, 0), Point(230.28240853094943, 50.43268904999735, 0), Point(231.89382334694645, 50.19365824193251, 0), Point(233.47404964390276, 49.797832160393554, 0), Point(235.0078689787392, 49.24902282692625, 0), Point(236.48050983279026, 48.55251557542158, 0), Point(237.87778986960407, 47.71501815146114, 0), Point(239.18625251859524, 46.744596113060325, 0), Point(240.39329656917542, 45.65059515493557, 0), Point(241.48729752730011, 44.44355110435541, 0), Point(242.45771956570096, 43.13508845536428, 0), Point(243.29521698966138, 41.73780841855046, 0), Point(243.99172424116605, 40.26516756449939, 0), Point(244.54053357463337, 38.73134822966297, 0), Point(244.9363596561723, 37.151121932706616, 0), Point(245.17539046423715, 35.53970711670959, 0), Point(245.25532400147873, 33.912622587238886, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(291.7576811502488, 97.70533082810049, 0), Point(291.6777476130072, 96.07824629862976, 0), Point(291.4387168049424, 94.46683148263274, 0), Point(291.0428907234035, 92.8866051856764, 0), Point(290.4940813899361, 91.35278585084, 0), Point(289.7975741384315, 89.88014499678893, 0), Point(288.96007671447103, 88.48286495997509, 0), Point(287.98965467607024, 87.17440231098398, 0), Point(286.8956537179455, 85.9673582604038, 0), Point(285.6886096673653, 84.87335730227905, 0), Point(284.38014701837415, 83.90293526387823, 0), Point(282.9828669815604, 83.0654378399178, 0), Point(281.5102261275093, 82.36893058841314, 0), Point(279.97640679267283, 81.82012125494582, 0), Point(278.3961804957165, 81.42429517340686, 0), Point(276.7847656797195, 81.18526436534201, 0), Point(275.1576811502488, 81.10533082810049, 0), Point(273.53059662077806, 81.18526436534201, 0), Point(271.91918180478103, 81.42429517340686, 0), Point(270.3389555078247, 81.82012125494582, 0), Point(268.80513617298834, 82.36893058841314, 0), Point(267.3324953189373, 83.0654378399178, 0), Point(265.9352152821234, 83.90293526387823, 0), Point(264.62675263313224, 84.87335730227905, 0), Point(263.41970858255206, 85.9673582604038, 0), Point(262.3257076244273, 87.17440231098398, 0), Point(261.3552855860265, 88.48286495997509, 0), Point(260.51778816206615, 89.88014499678893, 0), Point(259.8212809105614, 91.35278585084, 0), Point(259.27247157709417, 92.8866051856764, 0), Point(258.8766454955552, 94.46683148263274, 0), Point(258.6376146874903, 96.07824629862976, 0), Point(258.55768115024875, 97.70533082810049, 0), Point(258.6376146874903, 99.33241535757121, 0), Point(258.8766454955552, 100.94383017356823, 0), Point(259.27247157709417, 102.52405647052454, 0), Point(259.8212809105614, 104.05787580536098, 0), Point(260.51778816206604, 105.53051665941204, 0), Point(261.3552855860265, 106.92779669622588, 0), Point(262.3257076244273, 108.236259345217, 0), Point(263.41970858255206, 109.44330339579717, 0), Point(264.62675263313224, 110.53730435392193, 0), Point(265.9352152821234, 111.50772639232274, 0), Point(267.3324953189373, 112.34522381628317, 0), Point(268.80513617298834, 113.04173106778784, 0), Point(270.3389555078247, 113.59054040125515, 0), Point(271.91918180478103, 113.98636648279411, 0), Point(273.53059662077806, 114.22539729085896, 0), Point(275.1576811502488, 114.30533082810048, 0), Point(276.7847656797195, 114.22539729085896, 0), Point(278.3961804957165, 113.98636648279411, 0), Point(279.97640679267283, 113.59054040125515, 0), Point(281.5102261275093, 113.04173106778784, 0), Point(282.9828669815604, 112.34522381628317, 0), Point(284.38014701837415, 111.50772639232274, 0), Point(285.6886096673653, 110.53730435392193, 0), Point(286.8956537179455, 109.44330339579717, 0), Point(287.98965467607024, 108.23625934521702, 0), Point(288.96007671447103, 106.92779669622588, 0), Point(289.7975741384315, 105.53051665941204, 0), Point(290.4940813899361, 104.05787580536098, 0), Point(291.0428907234035, 102.52405647052457, 0), Point(291.4387168049424, 100.94383017356823, 0), Point(291.6777476130072, 99.33241535757121, 0), Point(291.7576811502488, 97.70533082810049, 0)]</t>
+  </si>
+  <si>
+    <t>EN-2</t>
+  </si>
+  <si>
+    <t>[Point(76.64075462298746, 56.78402845937691, 0), Point(135.24075462298742, 56.78402845937691, 0), Point(135.24075462298742, 74.9840284593769, 0), Point(76.64075462298746, 74.9840284593769, 0), Point(76.64075462298746, 56.78402845937691, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(154.89599865412114, 0.5625474211357044, 0), Point(213.4959986541211, 0.5625474211357044, 0), Point(213.49599865412117, 18.762547421135675, 0), Point(154.89599865412112, 18.76254742113569, 0), Point(154.89599865412114, 0.5625474211357044, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(33.77577915075428, 174.14096230875379, 0), Point(92.37577915075428, 174.14096230875379, 0), Point(92.37577915075428, 192.34096230875377, 0), Point(33.77577915075428, 192.34096230875377, 0), Point(33.77577915075428, 174.14096230875379, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(105.56890229606263, 160.36548548333877, 0), Point(164.16890229606264, 160.36548548333877, 0), Point(164.16890229606264, 178.56548548333876, 0), Point(105.56890229606263, 178.56548548333876, 0), Point(105.56890229606263, 160.36548548333877, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(70.75973186292205, 0.12616964011233733, 0), Point(129.35973186292208, 0.12616964011233733, 0), Point(129.35973186292208, 18.326169640112333, 0), Point(70.75973186292205, 18.326169640112333, 0), Point(70.75973186292205, 0.12616964011233733, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(135.36263894763226, 44.66220895663983, 0), Point(193.96263894763226, 44.66220895663983, 0), Point(193.96263894763226, 62.86220895663983, 0), Point(135.36263894763226, 62.86220895663983, 0), Point(135.36263894763226, 44.66220895663983, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(67.99964441229207, 110.74511440868568, 0), Point(126.59964441229208, 110.74511440868568, 0), Point(126.59964441229208, 128.9451144086857, 0), Point(67.99964441229207, 128.9451144086857, 0), Point(67.99964441229207, 110.74511440868568, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(43.56373942232526, 19.252188612547272, 0), Point(102.16373942232528, 19.25218861254728, 0), Point(102.16373942232528, 37.452188612547275, 0), Point(43.56373942232524, 37.45218861254729, 0), Point(43.56373942232526, 19.252188612547272, 0)]</t>
+  </si>
+  <si>
+    <t>EN-4</t>
+  </si>
+  <si>
+    <t>[Point(106.05077340907222, 140.65274061708092, 0), Point(195.1507734090722, 140.65274061708092, 0), Point(195.1507734090722, 158.8527406170809, 0), Point(106.05077340907222, 158.8527406170809, 0), Point(106.05077340907222, 140.65274061708092, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(146.24874311448545, 63.277980159021524, 0), Point(235.34874311448547, 63.27798015902148, 0), Point(235.34874311448547, 81.47798015902151, 0), Point(146.24874311448553, 81.47798015902147, 0), Point(146.24874311448545, 63.277980159021524, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(104.8273466792953, 23.55815826794698, 0), Point(193.92734667929523, 23.55815826794698, 0), Point(193.92734667929523, 41.758158267947024, 0), Point(104.8273466792953, 41.758158267947024, 0), Point(104.8273466792953, 23.55815826794698, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(100.265037316336, 180.3937863723128, 0), Point(189.365037316336, 180.3937863723128, 0), Point(189.365037316336, 198.5937863723128, 0), Point(100.265037316336, 198.5937863723128, 0), Point(100.265037316336, 180.3937863723128, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(141.98405274037293, 117.84863986583396, 0), Point(231.08405274037293, 117.84863986583396, 0), Point(231.08405274037293, 136.04863986583396, 0), Point(141.98405274037293, 136.04863986583396, 0), Point(141.98405274037293, 117.84863986583396, 0)]</t>
+  </si>
+  <si>
+    <t>[Point(157.4055829135837, 98.84058725526259, 0), Point(246.50558291358368, 98.8405872552625, 0), Point(246.50558291358368, 117.04058725526255, 0), Point(157.40558291358371, 117.04058725526252, 0), Point(157.4055829135837, 98.84058725526259, 0)]</t>
   </si>
   <si>
     <t>Total:</t>
@@ -413,26 +485,59 @@
         <v>4</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5745.919999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4328.486358116018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>8532.160000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>5328.240000000001</v>
+      <c r="C5">
+        <v>9729.719999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>0.5328240000000001</v>
+        <v>0.5418027984343408</v>
       </c>
     </row>
   </sheetData>
@@ -441,6 +546,150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -450,71 +699,35 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>